--- a/辅助总表/奖励辅助表.xlsx
+++ b/辅助总表/奖励辅助表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28840" yWindow="460" windowWidth="38400" windowHeight="21140" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="28800" yWindow="460" windowWidth="38400" windowHeight="21140" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="奖励" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="奖励辅助" sheetId="3" r:id="rId3"/>
     <sheet name="物品" sheetId="2" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="150000" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1493" uniqueCount="878">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1592" uniqueCount="932">
   <si>
     <t>ID</t>
   </si>
@@ -2675,26 +2675,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>武将卡</t>
-    <rPh sb="0" eb="1">
-      <t>wu'j</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ka</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>武器卡</t>
-    <rPh sb="0" eb="1">
-      <t>wu'q</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ka</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[{"g":10,"i":[{"t":"i","i":30,"c":2,"tr":0}]},{"g":10,"i":[{"t":"i","i":31,"c":2,"tr":0}]}]</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -2770,12 +2750,201 @@
     <t>]}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>武将卡</t>
+    <rPh sb="0" eb="1">
+      <t>wu'j</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ka</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通精魄</t>
+    <rPh sb="0" eb="1">
+      <t>pu't</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jing'p</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级精魄</t>
+    <rPh sb="0" eb="1">
+      <t>gao'j</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jing'p</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>莲华武将卡</t>
+  </si>
+  <si>
+    <t>笈笙武将卡</t>
+  </si>
+  <si>
+    <t>越城武将卡</t>
+  </si>
+  <si>
+    <t>云颜武将卡</t>
+  </si>
+  <si>
+    <t>飞将武将卡</t>
+  </si>
+  <si>
+    <t>胧月武将卡</t>
+  </si>
+  <si>
+    <t>离墟武将卡</t>
+  </si>
+  <si>
+    <t>绝影武将卡</t>
+  </si>
+  <si>
+    <t>岚汐武将卡</t>
+  </si>
+  <si>
+    <t>玄法武将卡</t>
+  </si>
+  <si>
+    <t>岚依武将卡</t>
+  </si>
+  <si>
+    <t>炀烈武将卡</t>
+  </si>
+  <si>
+    <t>炘诀武将卡</t>
+  </si>
+  <si>
+    <t>奈落武将卡</t>
+  </si>
+  <si>
+    <t>卡尔武将卡</t>
+  </si>
+  <si>
+    <t>星泽武将卡</t>
+  </si>
+  <si>
+    <t>释武将卡</t>
+  </si>
+  <si>
+    <t>凰邪武将卡</t>
+  </si>
+  <si>
+    <t>猎风武将卡</t>
+  </si>
+  <si>
+    <t>夜音武将卡</t>
+  </si>
+  <si>
+    <t>琅琊武将卡</t>
+  </si>
+  <si>
+    <t>乐涯武将卡</t>
+  </si>
+  <si>
+    <t>辽武将卡</t>
+  </si>
+  <si>
+    <t>星霜武将卡</t>
+  </si>
+  <si>
+    <t>刀低武器卡</t>
+  </si>
+  <si>
+    <t>刀中武器卡</t>
+  </si>
+  <si>
+    <t>刀高武器卡</t>
+  </si>
+  <si>
+    <t>弓弩低武器卡</t>
+  </si>
+  <si>
+    <t>弓弩中武器卡</t>
+  </si>
+  <si>
+    <t>弓弩高武器卡</t>
+  </si>
+  <si>
+    <t>短兵低武器卡</t>
+  </si>
+  <si>
+    <t>短兵中武器卡</t>
+  </si>
+  <si>
+    <t>短兵高武器卡</t>
+  </si>
+  <si>
+    <t>长柄兵器低武器卡</t>
+  </si>
+  <si>
+    <t>长柄兵器中武器卡</t>
+  </si>
+  <si>
+    <t>长柄兵器高武器卡</t>
+  </si>
+  <si>
+    <t>重武器低武器卡</t>
+  </si>
+  <si>
+    <t>重武器中武器卡</t>
+  </si>
+  <si>
+    <t>重武器高武器卡</t>
+  </si>
+  <si>
+    <t>法杖低武器卡</t>
+  </si>
+  <si>
+    <t>法杖中武器卡</t>
+  </si>
+  <si>
+    <t>法杖高武器卡</t>
+  </si>
+  <si>
+    <t>特殊低武器卡</t>
+  </si>
+  <si>
+    <t>特殊中武器卡</t>
+  </si>
+  <si>
+    <t>特殊高武器卡</t>
+  </si>
+  <si>
+    <t>剑低武器卡</t>
+  </si>
+  <si>
+    <t>剑中武器卡</t>
+  </si>
+  <si>
+    <t>剑高武器卡</t>
+  </si>
+  <si>
+    <t>匕首低武器卡</t>
+  </si>
+  <si>
+    <t>匕首中武器卡</t>
+  </si>
+  <si>
+    <t>匕首高武器卡</t>
+  </si>
+  <si>
+    <t>[{"g":20,"i":[{"t":"i","i":21001,"c":1,"tr":0}]},{"g":20,"i":[{"t":"i","i":21002,"c":2,"tr":0}]},{"g":20,"i":[{"t":"i","i":21003,"c":3,"tr":0}]},{"g":20,"i":[{"t":"i","i":21004,"c":4,"tr":0}]},{"g":20,"i":[{"t":"i","i":21005,"c":5,"tr":0}]},{"g":20,"i":[{"t":"i","i":21006,"c":6,"tr":0}]},{"g":20,"i":[{"t":"i","i":21007,"c":7,"tr":0}]},{"g":20,"i":[{"t":"i","i":21008,"c":8,"tr":0}]},{"g":20,"i":[{"t":"i","i":21009,"c":9,"tr":0}]},{"g":20,"i":[{"t":"i","i":21010,"c":10,"tr":0}]},{"g":100,"i":[{"t":"i","i":22001,"c":11,"tr":0}]},{"g":100,"i":[{"t":"i","i":22004,"c":12,"tr":0}]},{"g":100,"i":[{"t":"i","i":22007,"c":13,"tr":0}]},{"g":100,"i":[{"t":"i","i":22010,"c":14,"tr":0}]},{"g":100,"i":[{"t":"i","i":22013,"c":15,"tr":0}]},{"g":100,"i":[{"t":"i","i":22016,"c":16,"tr":0}]},{"g":100,"i":[{"t":"i","i":22019,"c":17,"tr":0}]},{"g":100,"i":[{"t":"i","i":22022,"c":18,"tr":0}]},{"g":100,"i":[{"t":"i","i":22025,"c":19,"tr":0}]},{"g":5,"i":[{"t":"i","i":21011,"c":20,"tr":0}]},{"g":5,"i":[{"t":"i","i":21012,"c":21,"tr":0}]},{"g":5,"i":[{"t":"i","i":21013,"c":22,"tr":0}]},{"g":5,"i":[{"t":"i","i":21014,"c":23,"tr":0}]},{"g":5,"i":[{"t":"i","i":21015,"c":24,"tr":0}]},{"g":5,"i":[{"t":"i","i":21016,"c":25,"tr":0}]},{"g":5,"i":[{"t":"i","i":21017,"c":26,"tr":0}]},{"g":10,"i":[{"t":"i","i":22002,"c":27,"tr":0}]},{"g":10,"i":[{"t":"i","i":22005,"c":28,"tr":0}]},{"g":10,"i":[{"t":"i","i":22008,"c":29,"tr":0}]},{"g":10,"i":[{"t":"i","i":22011,"c":30,"tr":0}]},{"g":10,"i":[{"t":"i","i":22014,"c":31,"tr":0}]},{"g":10,"i":[{"t":"i","i":22017,"c":32,"tr":0}]},{"g":10,"i":[{"t":"i","i":22020,"c":33,"tr":0}]},{"g":10,"i":[{"t":"i","i":22023,"c":34,"tr":0}]},{"g":10,"i":[{"t":"i","i":22026,"c":35,"tr":0}]}]</t>
+  </si>
+  <si>
+    <t>[{"g":100,"i":[{"t":"i","i":21018,"c":36,"tr":0}]},{"g":100,"i":[{"t":"i","i":21019,"c":37,"tr":0}]},{"g":100,"i":[{"t":"i","i":21020,"c":38,"tr":0}]},{"g":100,"i":[{"t":"i","i":21021,"c":39,"tr":0}]},{"g":100,"i":[{"t":"i","i":21022,"c":40,"tr":0}]},{"g":100,"i":[{"t":"i","i":21023,"c":41,"tr":0}]},{"g":100,"i":[{"t":"i","i":21024,"c":42,"tr":0}]},{"g":100,"i":[{"t":"i","i":22003,"c":43,"tr":0}]},{"g":100,"i":[{"t":"i","i":22006,"c":44,"tr":0}]},{"g":100,"i":[{"t":"i","i":22009,"c":45,"tr":0}]},{"g":100,"i":[{"t":"i","i":22012,"c":46,"tr":0}]},{"g":100,"i":[{"t":"i","i":22015,"c":47,"tr":0}]},{"g":100,"i":[{"t":"i","i":22018,"c":48,"tr":0}]},{"g":100,"i":[{"t":"i","i":22021,"c":49,"tr":0}]},{"g":100,"i":[{"t":"i","i":22024,"c":50,"tr":0}]},{"g":100,"i":[{"t":"i","i":22027,"c":51,"tr":0}]}]</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2797,10 +2966,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="14"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -2830,12 +2995,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -3116,8 +3280,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F979"/>
   <sheetViews>
-    <sheetView topLeftCell="A267" workbookViewId="0">
-      <selection activeCell="D65" sqref="D65"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -19270,7 +19434,7 @@
         <v>857</v>
       </c>
       <c r="D977" s="3" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="E977" s="2">
         <v>0</v>
@@ -19327,10 +19491,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:BD22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -19339,7 +19503,7 @@
     <col min="7" max="9" width="45.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:56" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -19359,7 +19523,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:56" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -19379,7 +19543,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:56" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -19440,8 +19604,116 @@
       <c r="T3">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="U3">
+        <v>15</v>
+      </c>
+      <c r="V3">
+        <v>16</v>
+      </c>
+      <c r="W3">
+        <v>17</v>
+      </c>
+      <c r="X3">
+        <v>18</v>
+      </c>
+      <c r="Y3">
+        <v>19</v>
+      </c>
+      <c r="Z3">
+        <v>20</v>
+      </c>
+      <c r="AA3">
+        <v>21</v>
+      </c>
+      <c r="AB3">
+        <v>22</v>
+      </c>
+      <c r="AC3">
+        <v>23</v>
+      </c>
+      <c r="AD3">
+        <v>24</v>
+      </c>
+      <c r="AE3">
+        <v>25</v>
+      </c>
+      <c r="AF3">
+        <v>26</v>
+      </c>
+      <c r="AG3">
+        <v>27</v>
+      </c>
+      <c r="AH3">
+        <v>28</v>
+      </c>
+      <c r="AI3">
+        <v>29</v>
+      </c>
+      <c r="AJ3">
+        <v>30</v>
+      </c>
+      <c r="AK3">
+        <v>31</v>
+      </c>
+      <c r="AL3">
+        <v>32</v>
+      </c>
+      <c r="AM3">
+        <v>33</v>
+      </c>
+      <c r="AN3">
+        <v>34</v>
+      </c>
+      <c r="AO3">
+        <v>35</v>
+      </c>
+      <c r="AP3">
+        <v>36</v>
+      </c>
+      <c r="AQ3">
+        <v>37</v>
+      </c>
+      <c r="AR3">
+        <v>38</v>
+      </c>
+      <c r="AS3">
+        <v>39</v>
+      </c>
+      <c r="AT3">
+        <v>40</v>
+      </c>
+      <c r="AU3">
+        <v>41</v>
+      </c>
+      <c r="AV3">
+        <v>42</v>
+      </c>
+      <c r="AW3">
+        <v>43</v>
+      </c>
+      <c r="AX3">
+        <v>44</v>
+      </c>
+      <c r="AY3">
+        <v>45</v>
+      </c>
+      <c r="AZ3">
+        <v>46</v>
+      </c>
+      <c r="BA3">
+        <v>47</v>
+      </c>
+      <c r="BB3">
+        <v>48</v>
+      </c>
+      <c r="BC3">
+        <v>49</v>
+      </c>
+      <c r="BD3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:56" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>100</v>
       </c>
@@ -19452,8 +19724,8 @@
         <v>862</v>
       </c>
       <c r="D4" s="3" t="str">
-        <f>"["&amp;G4&amp;H4&amp;I4&amp;J4&amp;K4&amp;L4&amp;"]"</f>
-        <v>[{"g":20,"i":[{"t":"i","i":63,"c":1,"tr":0}]},{"g":20,"i":[{"t":"i","i":69,"c":2,"tr":0}]},{"g":20,"i":[{"t":"i","i":72,"c":3,"tr":0}]}]</v>
+        <f>"["&amp;G4&amp;H4&amp;I4&amp;J4&amp;K4&amp;L4&amp;M4&amp;N4&amp;O4&amp;P4&amp;Q4&amp;R4&amp;S4&amp;T4&amp;U4&amp;V4&amp;W4&amp;X4&amp;Y4&amp;Z4&amp;AA4&amp;AB4&amp;AC4&amp;AD4&amp;AE4&amp;AF4&amp;AG4&amp;AH4&amp;AI4&amp;AJ4&amp;AK4&amp;AL4&amp;AM4&amp;AN4&amp;AO4&amp;AP4&amp;AQ4&amp;AR4&amp;AS4&amp;AT4&amp;AU4&amp;AV4&amp;AW4&amp;AX4&amp;AY4&amp;AZ4&amp;"]"</f>
+        <v>[{"g":20,"i":[{"t":"i","i":21001,"c":1,"tr":0}]},{"g":20,"i":[{"t":"i","i":21002,"c":2,"tr":0}]},{"g":20,"i":[{"t":"i","i":21003,"c":3,"tr":0}]},{"g":20,"i":[{"t":"i","i":21004,"c":4,"tr":0}]},{"g":20,"i":[{"t":"i","i":21005,"c":5,"tr":0}]},{"g":20,"i":[{"t":"i","i":21006,"c":6,"tr":0}]},{"g":20,"i":[{"t":"i","i":21007,"c":7,"tr":0}]},{"g":20,"i":[{"t":"i","i":21008,"c":8,"tr":0}]},{"g":20,"i":[{"t":"i","i":21009,"c":9,"tr":0}]},{"g":20,"i":[{"t":"i","i":21010,"c":10,"tr":0}]},{"g":100,"i":[{"t":"i","i":22001,"c":11,"tr":0}]},{"g":100,"i":[{"t":"i","i":22004,"c":12,"tr":0}]},{"g":100,"i":[{"t":"i","i":22007,"c":13,"tr":0}]},{"g":100,"i":[{"t":"i","i":22010,"c":14,"tr":0}]},{"g":100,"i":[{"t":"i","i":22013,"c":15,"tr":0}]},{"g":100,"i":[{"t":"i","i":22016,"c":16,"tr":0}]},{"g":100,"i":[{"t":"i","i":22019,"c":17,"tr":0}]},{"g":100,"i":[{"t":"i","i":22022,"c":18,"tr":0}]},{"g":100,"i":[{"t":"i","i":22025,"c":19,"tr":0}]},{"g":5,"i":[{"t":"i","i":21011,"c":20,"tr":0}]},{"g":5,"i":[{"t":"i","i":21012,"c":21,"tr":0}]},{"g":5,"i":[{"t":"i","i":21013,"c":22,"tr":0}]},{"g":5,"i":[{"t":"i","i":21014,"c":23,"tr":0}]},{"g":5,"i":[{"t":"i","i":21015,"c":24,"tr":0}]},{"g":5,"i":[{"t":"i","i":21016,"c":25,"tr":0}]},{"g":5,"i":[{"t":"i","i":21017,"c":26,"tr":0}]},{"g":10,"i":[{"t":"i","i":22002,"c":27,"tr":0}]},{"g":10,"i":[{"t":"i","i":22005,"c":28,"tr":0}]},{"g":10,"i":[{"t":"i","i":22008,"c":29,"tr":0}]},{"g":10,"i":[{"t":"i","i":22011,"c":30,"tr":0}]},{"g":10,"i":[{"t":"i","i":22014,"c":31,"tr":0}]},{"g":10,"i":[{"t":"i","i":22017,"c":32,"tr":0}]},{"g":10,"i":[{"t":"i","i":22020,"c":33,"tr":0}]},{"g":10,"i":[{"t":"i","i":22023,"c":34,"tr":0}]},{"g":10,"i":[{"t":"i","i":22026,"c":35,"tr":0}]}]</v>
       </c>
       <c r="E4" s="2">
         <v>0</v>
@@ -19463,64 +19735,208 @@
       </c>
       <c r="G4" t="str">
         <f>VLOOKUP($A4*1000+G$3,奖励辅助!$A:$K,11,FALSE)</f>
-        <v>{"g":20,"i":[{"t":"i","i":63,"c":1,"tr":0}]}</v>
+        <v>{"g":20,"i":[{"t":"i","i":21001,"c":1,"tr":0}]}</v>
       </c>
       <c r="H4" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+H$3,奖励辅助!$A:$K,11,FALSE),"")</f>
-        <v>,{"g":20,"i":[{"t":"i","i":69,"c":2,"tr":0}]}</v>
+        <v>,{"g":20,"i":[{"t":"i","i":21002,"c":2,"tr":0}]}</v>
       </c>
       <c r="I4" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+I$3,奖励辅助!$A:$K,11,FALSE),"")</f>
-        <v>,{"g":20,"i":[{"t":"i","i":72,"c":3,"tr":0}]}</v>
+        <v>,{"g":20,"i":[{"t":"i","i":21003,"c":3,"tr":0}]}</v>
       </c>
       <c r="J4" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+J$3,奖励辅助!$A:$K,11,FALSE),"")</f>
-        <v/>
+        <v>,{"g":20,"i":[{"t":"i","i":21004,"c":4,"tr":0}]}</v>
       </c>
       <c r="K4" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+K$3,奖励辅助!$A:$K,11,FALSE),"")</f>
-        <v/>
+        <v>,{"g":20,"i":[{"t":"i","i":21005,"c":5,"tr":0}]}</v>
       </c>
       <c r="L4" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+L$3,奖励辅助!$A:$K,11,FALSE),"")</f>
-        <v/>
+        <v>,{"g":20,"i":[{"t":"i","i":21006,"c":6,"tr":0}]}</v>
       </c>
       <c r="M4" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+M$3,奖励辅助!$A:$K,11,FALSE),"")</f>
-        <v/>
+        <v>,{"g":20,"i":[{"t":"i","i":21007,"c":7,"tr":0}]}</v>
       </c>
       <c r="N4" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+N$3,奖励辅助!$A:$K,11,FALSE),"")</f>
-        <v/>
+        <v>,{"g":20,"i":[{"t":"i","i":21008,"c":8,"tr":0}]}</v>
       </c>
       <c r="O4" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+O$3,奖励辅助!$A:$K,11,FALSE),"")</f>
-        <v/>
+        <v>,{"g":20,"i":[{"t":"i","i":21009,"c":9,"tr":0}]}</v>
       </c>
       <c r="P4" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+P$3,奖励辅助!$A:$K,11,FALSE),"")</f>
-        <v/>
+        <v>,{"g":20,"i":[{"t":"i","i":21010,"c":10,"tr":0}]}</v>
       </c>
       <c r="Q4" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+Q$3,奖励辅助!$A:$K,11,FALSE),"")</f>
-        <v/>
+        <v>,{"g":100,"i":[{"t":"i","i":22001,"c":11,"tr":0}]}</v>
       </c>
       <c r="R4" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+R$3,奖励辅助!$A:$K,11,FALSE),"")</f>
-        <v/>
+        <v>,{"g":100,"i":[{"t":"i","i":22004,"c":12,"tr":0}]}</v>
       </c>
       <c r="S4" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+S$3,奖励辅助!$A:$K,11,FALSE),"")</f>
-        <v/>
+        <v>,{"g":100,"i":[{"t":"i","i":22007,"c":13,"tr":0}]}</v>
       </c>
       <c r="T4" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+T$3,奖励辅助!$A:$K,11,FALSE),"")</f>
+        <v>,{"g":100,"i":[{"t":"i","i":22010,"c":14,"tr":0}]}</v>
+      </c>
+      <c r="U4" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+U$3,奖励辅助!$A:$K,11,FALSE),"")</f>
+        <v>,{"g":100,"i":[{"t":"i","i":22013,"c":15,"tr":0}]}</v>
+      </c>
+      <c r="V4" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+V$3,奖励辅助!$A:$K,11,FALSE),"")</f>
+        <v>,{"g":100,"i":[{"t":"i","i":22016,"c":16,"tr":0}]}</v>
+      </c>
+      <c r="W4" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+W$3,奖励辅助!$A:$K,11,FALSE),"")</f>
+        <v>,{"g":100,"i":[{"t":"i","i":22019,"c":17,"tr":0}]}</v>
+      </c>
+      <c r="X4" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+X$3,奖励辅助!$A:$K,11,FALSE),"")</f>
+        <v>,{"g":100,"i":[{"t":"i","i":22022,"c":18,"tr":0}]}</v>
+      </c>
+      <c r="Y4" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+Y$3,奖励辅助!$A:$K,11,FALSE),"")</f>
+        <v>,{"g":100,"i":[{"t":"i","i":22025,"c":19,"tr":0}]}</v>
+      </c>
+      <c r="Z4" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+Z$3,奖励辅助!$A:$K,11,FALSE),"")</f>
+        <v>,{"g":5,"i":[{"t":"i","i":21011,"c":20,"tr":0}]}</v>
+      </c>
+      <c r="AA4" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+AA$3,奖励辅助!$A:$K,11,FALSE),"")</f>
+        <v>,{"g":5,"i":[{"t":"i","i":21012,"c":21,"tr":0}]}</v>
+      </c>
+      <c r="AB4" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+AB$3,奖励辅助!$A:$K,11,FALSE),"")</f>
+        <v>,{"g":5,"i":[{"t":"i","i":21013,"c":22,"tr":0}]}</v>
+      </c>
+      <c r="AC4" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+AC$3,奖励辅助!$A:$K,11,FALSE),"")</f>
+        <v>,{"g":5,"i":[{"t":"i","i":21014,"c":23,"tr":0}]}</v>
+      </c>
+      <c r="AD4" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+AD$3,奖励辅助!$A:$K,11,FALSE),"")</f>
+        <v>,{"g":5,"i":[{"t":"i","i":21015,"c":24,"tr":0}]}</v>
+      </c>
+      <c r="AE4" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+AE$3,奖励辅助!$A:$K,11,FALSE),"")</f>
+        <v>,{"g":5,"i":[{"t":"i","i":21016,"c":25,"tr":0}]}</v>
+      </c>
+      <c r="AF4" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+AF$3,奖励辅助!$A:$K,11,FALSE),"")</f>
+        <v>,{"g":5,"i":[{"t":"i","i":21017,"c":26,"tr":0}]}</v>
+      </c>
+      <c r="AG4" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+AG$3,奖励辅助!$A:$K,11,FALSE),"")</f>
+        <v>,{"g":10,"i":[{"t":"i","i":22002,"c":27,"tr":0}]}</v>
+      </c>
+      <c r="AH4" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+AH$3,奖励辅助!$A:$K,11,FALSE),"")</f>
+        <v>,{"g":10,"i":[{"t":"i","i":22005,"c":28,"tr":0}]}</v>
+      </c>
+      <c r="AI4" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+AI$3,奖励辅助!$A:$K,11,FALSE),"")</f>
+        <v>,{"g":10,"i":[{"t":"i","i":22008,"c":29,"tr":0}]}</v>
+      </c>
+      <c r="AJ4" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+AJ$3,奖励辅助!$A:$K,11,FALSE),"")</f>
+        <v>,{"g":10,"i":[{"t":"i","i":22011,"c":30,"tr":0}]}</v>
+      </c>
+      <c r="AK4" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+AK$3,奖励辅助!$A:$K,11,FALSE),"")</f>
+        <v>,{"g":10,"i":[{"t":"i","i":22014,"c":31,"tr":0}]}</v>
+      </c>
+      <c r="AL4" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+AL$3,奖励辅助!$A:$K,11,FALSE),"")</f>
+        <v>,{"g":10,"i":[{"t":"i","i":22017,"c":32,"tr":0}]}</v>
+      </c>
+      <c r="AM4" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+AM$3,奖励辅助!$A:$K,11,FALSE),"")</f>
+        <v>,{"g":10,"i":[{"t":"i","i":22020,"c":33,"tr":0}]}</v>
+      </c>
+      <c r="AN4" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+AN$3,奖励辅助!$A:$K,11,FALSE),"")</f>
+        <v>,{"g":10,"i":[{"t":"i","i":22023,"c":34,"tr":0}]}</v>
+      </c>
+      <c r="AO4" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+AO$3,奖励辅助!$A:$K,11,FALSE),"")</f>
+        <v>,{"g":10,"i":[{"t":"i","i":22026,"c":35,"tr":0}]}</v>
+      </c>
+      <c r="AP4" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+AP$3,奖励辅助!$A:$K,11,FALSE),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="AQ4" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+AQ$3,奖励辅助!$A:$K,11,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AR4" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+AR$3,奖励辅助!$A:$K,11,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AS4" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+AS$3,奖励辅助!$A:$K,11,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AT4" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+AT$3,奖励辅助!$A:$K,11,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AU4" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+AU$3,奖励辅助!$A:$K,11,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AV4" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+AV$3,奖励辅助!$A:$K,11,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AW4" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+AW$3,奖励辅助!$A:$K,11,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AX4" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+AX$3,奖励辅助!$A:$K,11,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AY4" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+AY$3,奖励辅助!$A:$K,11,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AZ4" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+AZ$3,奖励辅助!$A:$K,11,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="BA4" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+BA$3,奖励辅助!$A:$K,11,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="BB4" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+BB$3,奖励辅助!$A:$K,11,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="BC4" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+BC$3,奖励辅助!$A:$K,11,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="BD4" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+BD$3,奖励辅助!$A:$K,11,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:56" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
-        <v>12</v>
+        <v>200</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>861</v>
@@ -19529,8 +19945,8 @@
         <v>862</v>
       </c>
       <c r="D5" s="3" t="str">
-        <f>"["&amp;G5&amp;H5&amp;I5&amp;J5&amp;K5&amp;L5&amp;"]"</f>
-        <v>[{"t":"i","i":72,"c":3,"tr":0}]</v>
+        <f>"["&amp;G5&amp;H5&amp;I5&amp;J5&amp;K5&amp;L5&amp;M5&amp;N5&amp;O5&amp;P5&amp;Q5&amp;R5&amp;S5&amp;T5&amp;U5&amp;V5&amp;W5&amp;X5&amp;Y5&amp;Z5&amp;AA5&amp;AB5&amp;AC5&amp;AD5&amp;AE5&amp;AF5&amp;AG5&amp;AH5&amp;AI5&amp;AJ5&amp;AK5&amp;AL5&amp;AM5&amp;AN5&amp;AO5&amp;AP5&amp;AQ5&amp;AR5&amp;AS5&amp;AT5&amp;AU5&amp;AV5&amp;AW5&amp;AX5&amp;AY5&amp;AZ5&amp;"]"</f>
+        <v>[{"g":100,"i":[{"t":"i","i":21018,"c":36,"tr":0}]},{"g":100,"i":[{"t":"i","i":21019,"c":37,"tr":0}]},{"g":100,"i":[{"t":"i","i":21020,"c":38,"tr":0}]},{"g":100,"i":[{"t":"i","i":21021,"c":39,"tr":0}]},{"g":100,"i":[{"t":"i","i":21022,"c":40,"tr":0}]},{"g":100,"i":[{"t":"i","i":21023,"c":41,"tr":0}]},{"g":100,"i":[{"t":"i","i":21024,"c":42,"tr":0}]},{"g":100,"i":[{"t":"i","i":22003,"c":43,"tr":0}]},{"g":100,"i":[{"t":"i","i":22006,"c":44,"tr":0}]},{"g":100,"i":[{"t":"i","i":22009,"c":45,"tr":0}]},{"g":100,"i":[{"t":"i","i":22012,"c":46,"tr":0}]},{"g":100,"i":[{"t":"i","i":22015,"c":47,"tr":0}]},{"g":100,"i":[{"t":"i","i":22018,"c":48,"tr":0}]},{"g":100,"i":[{"t":"i","i":22021,"c":49,"tr":0}]},{"g":100,"i":[{"t":"i","i":22024,"c":50,"tr":0}]},{"g":100,"i":[{"t":"i","i":22027,"c":51,"tr":0}]}]</v>
       </c>
       <c r="E5" s="2">
         <v>0</v>
@@ -19540,64 +19956,138 @@
       </c>
       <c r="G5" t="str">
         <f>_xlfn.IFNA(VLOOKUP($A5*1000+G$3,奖励辅助!$A:$K,11,FALSE),"")</f>
-        <v>{"t":"i","i":72,"c":3,"tr":0}</v>
+        <v>{"g":100,"i":[{"t":"i","i":21018,"c":36,"tr":0}]}</v>
       </c>
       <c r="H5" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($A5*1000+H$3,奖励辅助!$A:$K,11,FALSE),"")</f>
-        <v/>
+        <v>,{"g":100,"i":[{"t":"i","i":21019,"c":37,"tr":0}]}</v>
       </c>
       <c r="I5" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($A5*1000+I$3,奖励辅助!$A:$K,11,FALSE),"")</f>
-        <v/>
+        <v>,{"g":100,"i":[{"t":"i","i":21020,"c":38,"tr":0}]}</v>
       </c>
       <c r="J5" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($A5*1000+J$3,奖励辅助!$A:$K,11,FALSE),"")</f>
-        <v/>
+        <v>,{"g":100,"i":[{"t":"i","i":21021,"c":39,"tr":0}]}</v>
       </c>
       <c r="K5" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($A5*1000+K$3,奖励辅助!$A:$K,11,FALSE),"")</f>
-        <v/>
+        <v>,{"g":100,"i":[{"t":"i","i":21022,"c":40,"tr":0}]}</v>
       </c>
       <c r="L5" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($A5*1000+L$3,奖励辅助!$A:$K,11,FALSE),"")</f>
-        <v/>
+        <v>,{"g":100,"i":[{"t":"i","i":21023,"c":41,"tr":0}]}</v>
       </c>
       <c r="M5" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($A5*1000+M$3,奖励辅助!$A:$K,11,FALSE),"")</f>
-        <v/>
+        <v>,{"g":100,"i":[{"t":"i","i":21024,"c":42,"tr":0}]}</v>
       </c>
       <c r="N5" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($A5*1000+N$3,奖励辅助!$A:$K,11,FALSE),"")</f>
-        <v/>
+        <v>,{"g":100,"i":[{"t":"i","i":22003,"c":43,"tr":0}]}</v>
       </c>
       <c r="O5" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($A5*1000+O$3,奖励辅助!$A:$K,11,FALSE),"")</f>
-        <v/>
+        <v>,{"g":100,"i":[{"t":"i","i":22006,"c":44,"tr":0}]}</v>
       </c>
       <c r="P5" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($A5*1000+P$3,奖励辅助!$A:$K,11,FALSE),"")</f>
-        <v/>
+        <v>,{"g":100,"i":[{"t":"i","i":22009,"c":45,"tr":0}]}</v>
       </c>
       <c r="Q5" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($A5*1000+Q$3,奖励辅助!$A:$K,11,FALSE),"")</f>
-        <v/>
+        <v>,{"g":100,"i":[{"t":"i","i":22012,"c":46,"tr":0}]}</v>
       </c>
       <c r="R5" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($A5*1000+R$3,奖励辅助!$A:$K,11,FALSE),"")</f>
-        <v/>
+        <v>,{"g":100,"i":[{"t":"i","i":22015,"c":47,"tr":0}]}</v>
       </c>
       <c r="S5" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($A5*1000+S$3,奖励辅助!$A:$K,11,FALSE),"")</f>
-        <v/>
+        <v>,{"g":100,"i":[{"t":"i","i":22018,"c":48,"tr":0}]}</v>
       </c>
       <c r="T5" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($A5*1000+T$3,奖励辅助!$A:$K,11,FALSE),"")</f>
+        <v>,{"g":100,"i":[{"t":"i","i":22021,"c":49,"tr":0}]}</v>
+      </c>
+      <c r="U5" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A5*1000+U$3,奖励辅助!$A:$K,11,FALSE),"")</f>
+        <v>,{"g":100,"i":[{"t":"i","i":22024,"c":50,"tr":0}]}</v>
+      </c>
+      <c r="V5" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A5*1000+V$3,奖励辅助!$A:$K,11,FALSE),"")</f>
+        <v>,{"g":100,"i":[{"t":"i","i":22027,"c":51,"tr":0}]}</v>
+      </c>
+      <c r="W5" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A5*1000+W$3,奖励辅助!$A:$K,11,FALSE),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="X5" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A5*1000+X$3,奖励辅助!$A:$K,11,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="Y5" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A5*1000+Y$3,奖励辅助!$A:$K,11,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="Z5" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A5*1000+Z$3,奖励辅助!$A:$K,11,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AA5" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A5*1000+AA$3,奖励辅助!$A:$K,11,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AB5" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A5*1000+AB$3,奖励辅助!$A:$K,11,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AC5" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A5*1000+AC$3,奖励辅助!$A:$K,11,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AD5" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A5*1000+AD$3,奖励辅助!$A:$K,11,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AE5" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A5*1000+AE$3,奖励辅助!$A:$K,11,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AF5" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A5*1000+AF$3,奖励辅助!$A:$K,11,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AG5" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A5*1000+AG$3,奖励辅助!$A:$K,11,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AH5" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A5*1000+AH$3,奖励辅助!$A:$K,11,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AI5" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A5*1000+AI$3,奖励辅助!$A:$K,11,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AJ5" t="str">
+        <f>_xlfn.IFNA(","&amp;VLOOKUP($A5*1000+AJ$3,奖励辅助!$A:$K,11,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:56" x14ac:dyDescent="0.15">
       <c r="D9" s="3" t="s">
-        <v>858</v>
+        <v>930</v>
+      </c>
+    </row>
+    <row r="14" spans="1:56" x14ac:dyDescent="0.15">
+      <c r="D14" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="22" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D22" s="3" t="s">
+        <v>930</v>
       </c>
     </row>
   </sheetData>
@@ -19608,10 +20098,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -19658,47 +20148,47 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="4" t="s">
+        <v>870</v>
+      </c>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4" t="s">
+        <v>873</v>
+      </c>
+      <c r="J5" s="4"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="G6" s="4" t="s">
+        <v>871</v>
+      </c>
+      <c r="H6" s="4" t="s">
         <v>872</v>
       </c>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5" t="s">
+      <c r="I6" s="4" t="s">
+        <v>874</v>
+      </c>
+      <c r="J6" s="4" t="s">
         <v>875</v>
-      </c>
-      <c r="J5" s="5"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="G6" s="5" t="s">
-        <v>873</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>874</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>876</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>877</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="B7" t="s">
+        <v>865</v>
+      </c>
+      <c r="C7" t="s">
+        <v>864</v>
+      </c>
+      <c r="D7" t="s">
+        <v>866</v>
+      </c>
+      <c r="E7" t="s">
         <v>867</v>
       </c>
-      <c r="C7" t="s">
-        <v>866</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="F7" t="s">
         <v>868</v>
-      </c>
-      <c r="E7" t="s">
-        <v>869</v>
-      </c>
-      <c r="F7" t="s">
-        <v>870</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
@@ -19715,8 +20205,8 @@
       <c r="D8">
         <v>20</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>81</v>
+      <c r="E8" t="s">
+        <v>879</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -19727,7 +20217,7 @@
       </c>
       <c r="H8" t="str">
         <f>H$6&amp;VLOOKUP(E8,物品!B:C,2,FALSE)</f>
-        <v>{"t":"i","i":63</v>
+        <v>{"t":"i","i":21001</v>
       </c>
       <c r="I8" t="str">
         <f>I$5&amp;F8&amp;I$6</f>
@@ -19739,7 +20229,7 @@
       </c>
       <c r="K8" t="str">
         <f>G8&amp;H8&amp;I8&amp;J8</f>
-        <v>{"g":20,"i":[{"t":"i","i":63,"c":1,"tr":0}]}</v>
+        <v>{"g":20,"i":[{"t":"i","i":21001,"c":1,"tr":0}]}</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.15">
@@ -19756,31 +20246,31 @@
       <c r="D9">
         <v>20</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>86</v>
+      <c r="E9" t="s">
+        <v>880</v>
       </c>
       <c r="F9">
         <v>2</v>
       </c>
       <c r="G9" t="str">
-        <f t="shared" ref="G9:G10" si="1">IF(D9=0,"",G$5&amp;D9&amp;G$6)</f>
+        <f t="shared" ref="G9:G58" si="1">IF(D9=0,"",G$5&amp;D9&amp;G$6)</f>
         <v>{"g":20,"i":[</v>
       </c>
       <c r="H9" t="str">
         <f>H$6&amp;VLOOKUP(E9,物品!B:C,2,FALSE)</f>
-        <v>{"t":"i","i":69</v>
+        <v>{"t":"i","i":21002</v>
       </c>
       <c r="I9" t="str">
-        <f t="shared" ref="I9:I10" si="2">I$5&amp;F9&amp;I$6</f>
+        <f t="shared" ref="I9:I58" si="2">I$5&amp;F9&amp;I$6</f>
         <v>,"c":2,"tr":0}</v>
       </c>
       <c r="J9" t="str">
-        <f t="shared" ref="J9:J10" si="3">IF(G9="","",J$6)</f>
+        <f t="shared" ref="J9:J58" si="3">IF(G9="","",J$6)</f>
         <v>]}</v>
       </c>
       <c r="K9" t="str">
-        <f t="shared" ref="K9:K11" si="4">G9&amp;H9&amp;I9&amp;J9</f>
-        <v>{"g":20,"i":[{"t":"i","i":69,"c":2,"tr":0}]}</v>
+        <f t="shared" ref="K9:K58" si="4">G9&amp;H9&amp;I9&amp;J9</f>
+        <v>{"g":20,"i":[{"t":"i","i":21002,"c":2,"tr":0}]}</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.15">
@@ -19797,8 +20287,8 @@
       <c r="D10">
         <v>20</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>87</v>
+      <c r="E10" t="s">
+        <v>881</v>
       </c>
       <c r="F10">
         <v>3</v>
@@ -19809,7 +20299,7 @@
       </c>
       <c r="H10" t="str">
         <f>H$6&amp;VLOOKUP(E10,物品!B:C,2,FALSE)</f>
-        <v>{"t":"i","i":72</v>
+        <v>{"t":"i","i":21003</v>
       </c>
       <c r="I10" t="str">
         <f t="shared" si="2"/>
@@ -19821,58 +20311,1975 @@
       </c>
       <c r="K10" t="str">
         <f t="shared" si="4"/>
-        <v>{"g":20,"i":[{"t":"i","i":72,"c":3,"tr":0}]}</v>
+        <v>{"g":20,"i":[{"t":"i","i":21003,"c":3,"tr":0}]}</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11">
-        <f t="shared" ref="A11" si="5">B11*1000+C11</f>
-        <v>12001</v>
+        <f t="shared" ref="A11:A43" si="5">B11*1000+C11</f>
+        <v>100004</v>
       </c>
       <c r="B11">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>87</v>
+        <v>20</v>
+      </c>
+      <c r="E11" t="s">
+        <v>882</v>
       </c>
       <c r="F11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G11" t="str">
-        <f t="shared" ref="G11" si="6">IF(D11=0,"",G$5&amp;D11&amp;G$6)</f>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>{"g":20,"i":[</v>
       </c>
       <c r="H11" t="str">
         <f>H$6&amp;VLOOKUP(E11,物品!B:C,2,FALSE)</f>
-        <v>{"t":"i","i":72</v>
+        <v>{"t":"i","i":21004</v>
       </c>
       <c r="I11" t="str">
-        <f t="shared" ref="I11" si="7">I$5&amp;F11&amp;I$6</f>
-        <v>,"c":3,"tr":0}</v>
+        <f t="shared" si="2"/>
+        <v>,"c":4,"tr":0}</v>
       </c>
       <c r="J11" t="str">
-        <f t="shared" ref="J11" si="8">IF(G11="","",J$6)</f>
-        <v/>
+        <f t="shared" si="3"/>
+        <v>]}</v>
       </c>
       <c r="K11" t="str">
         <f t="shared" si="4"/>
-        <v>{"t":"i","i":72,"c":3,"tr":0}</v>
+        <v>{"g":20,"i":[{"t":"i","i":21004,"c":4,"tr":0}]}</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <f t="shared" si="5"/>
+        <v>100005</v>
+      </c>
+      <c r="B12">
+        <v>100</v>
+      </c>
+      <c r="C12">
+        <v>5</v>
+      </c>
+      <c r="D12">
+        <v>20</v>
+      </c>
+      <c r="E12" t="s">
+        <v>883</v>
+      </c>
+      <c r="F12">
+        <v>5</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="1"/>
+        <v>{"g":20,"i":[</v>
+      </c>
+      <c r="H12" t="str">
+        <f>H$6&amp;VLOOKUP(E12,物品!B:C,2,FALSE)</f>
+        <v>{"t":"i","i":21005</v>
+      </c>
+      <c r="I12" t="str">
+        <f t="shared" si="2"/>
+        <v>,"c":5,"tr":0}</v>
+      </c>
+      <c r="J12" t="str">
+        <f t="shared" si="3"/>
+        <v>]}</v>
+      </c>
+      <c r="K12" t="str">
+        <f t="shared" si="4"/>
+        <v>{"g":20,"i":[{"t":"i","i":21005,"c":5,"tr":0}]}</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <f t="shared" si="5"/>
+        <v>100006</v>
+      </c>
+      <c r="B13">
+        <v>100</v>
+      </c>
+      <c r="C13">
+        <v>6</v>
+      </c>
+      <c r="D13">
+        <v>20</v>
+      </c>
+      <c r="E13" t="s">
+        <v>884</v>
+      </c>
+      <c r="F13">
+        <v>6</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="1"/>
+        <v>{"g":20,"i":[</v>
+      </c>
+      <c r="H13" t="str">
+        <f>H$6&amp;VLOOKUP(E13,物品!B:C,2,FALSE)</f>
+        <v>{"t":"i","i":21006</v>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" si="2"/>
+        <v>,"c":6,"tr":0}</v>
+      </c>
+      <c r="J13" t="str">
+        <f t="shared" si="3"/>
+        <v>]}</v>
+      </c>
+      <c r="K13" t="str">
+        <f t="shared" si="4"/>
+        <v>{"g":20,"i":[{"t":"i","i":21006,"c":6,"tr":0}]}</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <f t="shared" si="5"/>
+        <v>100007</v>
+      </c>
+      <c r="B14">
+        <v>100</v>
+      </c>
+      <c r="C14">
+        <v>7</v>
+      </c>
+      <c r="D14">
+        <v>20</v>
+      </c>
+      <c r="E14" t="s">
+        <v>885</v>
+      </c>
+      <c r="F14">
+        <v>7</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="1"/>
+        <v>{"g":20,"i":[</v>
+      </c>
+      <c r="H14" t="str">
+        <f>H$6&amp;VLOOKUP(E14,物品!B:C,2,FALSE)</f>
+        <v>{"t":"i","i":21007</v>
+      </c>
+      <c r="I14" t="str">
+        <f t="shared" si="2"/>
+        <v>,"c":7,"tr":0}</v>
+      </c>
+      <c r="J14" t="str">
+        <f t="shared" si="3"/>
+        <v>]}</v>
+      </c>
+      <c r="K14" t="str">
+        <f t="shared" si="4"/>
+        <v>{"g":20,"i":[{"t":"i","i":21007,"c":7,"tr":0}]}</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="E15" s="3" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="18" spans="5:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="E18" s="4" t="s">
+      <c r="A15">
+        <f t="shared" si="5"/>
+        <v>100008</v>
+      </c>
+      <c r="B15">
+        <v>100</v>
+      </c>
+      <c r="C15">
+        <v>8</v>
+      </c>
+      <c r="D15">
+        <v>20</v>
+      </c>
+      <c r="E15" t="s">
+        <v>886</v>
+      </c>
+      <c r="F15">
+        <v>8</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="1"/>
+        <v>{"g":20,"i":[</v>
+      </c>
+      <c r="H15" t="str">
+        <f>H$6&amp;VLOOKUP(E15,物品!B:C,2,FALSE)</f>
+        <v>{"t":"i","i":21008</v>
+      </c>
+      <c r="I15" t="str">
+        <f t="shared" si="2"/>
+        <v>,"c":8,"tr":0}</v>
+      </c>
+      <c r="J15" t="str">
+        <f t="shared" si="3"/>
+        <v>]}</v>
+      </c>
+      <c r="K15" t="str">
+        <f t="shared" si="4"/>
+        <v>{"g":20,"i":[{"t":"i","i":21008,"c":8,"tr":0}]}</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <f t="shared" si="5"/>
+        <v>100009</v>
+      </c>
+      <c r="B16">
+        <v>100</v>
+      </c>
+      <c r="C16">
+        <v>9</v>
+      </c>
+      <c r="D16">
+        <v>20</v>
+      </c>
+      <c r="E16" t="s">
+        <v>887</v>
+      </c>
+      <c r="F16">
+        <v>9</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="1"/>
+        <v>{"g":20,"i":[</v>
+      </c>
+      <c r="H16" t="str">
+        <f>H$6&amp;VLOOKUP(E16,物品!B:C,2,FALSE)</f>
+        <v>{"t":"i","i":21009</v>
+      </c>
+      <c r="I16" t="str">
+        <f t="shared" si="2"/>
+        <v>,"c":9,"tr":0}</v>
+      </c>
+      <c r="J16" t="str">
+        <f t="shared" si="3"/>
+        <v>]}</v>
+      </c>
+      <c r="K16" t="str">
+        <f t="shared" si="4"/>
+        <v>{"g":20,"i":[{"t":"i","i":21009,"c":9,"tr":0}]}</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <f t="shared" si="5"/>
+        <v>100010</v>
+      </c>
+      <c r="B17">
+        <v>100</v>
+      </c>
+      <c r="C17">
+        <v>10</v>
+      </c>
+      <c r="D17">
+        <v>20</v>
+      </c>
+      <c r="E17" t="s">
+        <v>888</v>
+      </c>
+      <c r="F17">
+        <v>10</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="1"/>
+        <v>{"g":20,"i":[</v>
+      </c>
+      <c r="H17" t="str">
+        <f>H$6&amp;VLOOKUP(E17,物品!B:C,2,FALSE)</f>
+        <v>{"t":"i","i":21010</v>
+      </c>
+      <c r="I17" t="str">
+        <f t="shared" si="2"/>
+        <v>,"c":10,"tr":0}</v>
+      </c>
+      <c r="J17" t="str">
+        <f t="shared" si="3"/>
+        <v>]}</v>
+      </c>
+      <c r="K17" t="str">
+        <f t="shared" si="4"/>
+        <v>{"g":20,"i":[{"t":"i","i":21010,"c":10,"tr":0}]}</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <f t="shared" si="5"/>
+        <v>100011</v>
+      </c>
+      <c r="B18">
+        <v>100</v>
+      </c>
+      <c r="C18">
+        <v>11</v>
+      </c>
+      <c r="D18">
+        <v>100</v>
+      </c>
+      <c r="E18" t="s">
+        <v>903</v>
+      </c>
+      <c r="F18">
+        <v>11</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="1"/>
+        <v>{"g":100,"i":[</v>
+      </c>
+      <c r="H18" t="str">
+        <f>H$6&amp;VLOOKUP(E18,物品!B:C,2,FALSE)</f>
+        <v>{"t":"i","i":22001</v>
+      </c>
+      <c r="I18" t="str">
+        <f t="shared" si="2"/>
+        <v>,"c":11,"tr":0}</v>
+      </c>
+      <c r="J18" t="str">
+        <f t="shared" si="3"/>
+        <v>]}</v>
+      </c>
+      <c r="K18" t="str">
+        <f t="shared" si="4"/>
+        <v>{"g":100,"i":[{"t":"i","i":22001,"c":11,"tr":0}]}</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <f t="shared" si="5"/>
+        <v>100012</v>
+      </c>
+      <c r="B19">
+        <v>100</v>
+      </c>
+      <c r="C19">
+        <v>12</v>
+      </c>
+      <c r="D19">
+        <v>100</v>
+      </c>
+      <c r="E19" t="s">
+        <v>906</v>
+      </c>
+      <c r="F19">
+        <v>12</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="1"/>
+        <v>{"g":100,"i":[</v>
+      </c>
+      <c r="H19" t="str">
+        <f>H$6&amp;VLOOKUP(E19,物品!B:C,2,FALSE)</f>
+        <v>{"t":"i","i":22004</v>
+      </c>
+      <c r="I19" t="str">
+        <f t="shared" si="2"/>
+        <v>,"c":12,"tr":0}</v>
+      </c>
+      <c r="J19" t="str">
+        <f t="shared" si="3"/>
+        <v>]}</v>
+      </c>
+      <c r="K19" t="str">
+        <f t="shared" si="4"/>
+        <v>{"g":100,"i":[{"t":"i","i":22004,"c":12,"tr":0}]}</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <f t="shared" si="5"/>
+        <v>100013</v>
+      </c>
+      <c r="B20">
+        <v>100</v>
+      </c>
+      <c r="C20">
+        <v>13</v>
+      </c>
+      <c r="D20">
+        <v>100</v>
+      </c>
+      <c r="E20" t="s">
+        <v>909</v>
+      </c>
+      <c r="F20">
+        <v>13</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="1"/>
+        <v>{"g":100,"i":[</v>
+      </c>
+      <c r="H20" t="str">
+        <f>H$6&amp;VLOOKUP(E20,物品!B:C,2,FALSE)</f>
+        <v>{"t":"i","i":22007</v>
+      </c>
+      <c r="I20" t="str">
+        <f t="shared" si="2"/>
+        <v>,"c":13,"tr":0}</v>
+      </c>
+      <c r="J20" t="str">
+        <f t="shared" si="3"/>
+        <v>]}</v>
+      </c>
+      <c r="K20" t="str">
+        <f t="shared" si="4"/>
+        <v>{"g":100,"i":[{"t":"i","i":22007,"c":13,"tr":0}]}</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <f t="shared" si="5"/>
+        <v>100014</v>
+      </c>
+      <c r="B21">
+        <v>100</v>
+      </c>
+      <c r="C21">
+        <v>14</v>
+      </c>
+      <c r="D21">
+        <v>100</v>
+      </c>
+      <c r="E21" t="s">
+        <v>912</v>
+      </c>
+      <c r="F21">
+        <v>14</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="1"/>
+        <v>{"g":100,"i":[</v>
+      </c>
+      <c r="H21" t="str">
+        <f>H$6&amp;VLOOKUP(E21,物品!B:C,2,FALSE)</f>
+        <v>{"t":"i","i":22010</v>
+      </c>
+      <c r="I21" t="str">
+        <f t="shared" si="2"/>
+        <v>,"c":14,"tr":0}</v>
+      </c>
+      <c r="J21" t="str">
+        <f t="shared" si="3"/>
+        <v>]}</v>
+      </c>
+      <c r="K21" t="str">
+        <f t="shared" si="4"/>
+        <v>{"g":100,"i":[{"t":"i","i":22010,"c":14,"tr":0}]}</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <f t="shared" si="5"/>
+        <v>100015</v>
+      </c>
+      <c r="B22">
+        <v>100</v>
+      </c>
+      <c r="C22">
+        <v>15</v>
+      </c>
+      <c r="D22">
+        <v>100</v>
+      </c>
+      <c r="E22" t="s">
+        <v>915</v>
+      </c>
+      <c r="F22">
+        <v>15</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="1"/>
+        <v>{"g":100,"i":[</v>
+      </c>
+      <c r="H22" t="str">
+        <f>H$6&amp;VLOOKUP(E22,物品!B:C,2,FALSE)</f>
+        <v>{"t":"i","i":22013</v>
+      </c>
+      <c r="I22" t="str">
+        <f t="shared" si="2"/>
+        <v>,"c":15,"tr":0}</v>
+      </c>
+      <c r="J22" t="str">
+        <f t="shared" si="3"/>
+        <v>]}</v>
+      </c>
+      <c r="K22" t="str">
+        <f t="shared" si="4"/>
+        <v>{"g":100,"i":[{"t":"i","i":22013,"c":15,"tr":0}]}</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <f t="shared" si="5"/>
+        <v>100016</v>
+      </c>
+      <c r="B23">
+        <v>100</v>
+      </c>
+      <c r="C23">
+        <v>16</v>
+      </c>
+      <c r="D23">
+        <v>100</v>
+      </c>
+      <c r="E23" t="s">
+        <v>918</v>
+      </c>
+      <c r="F23">
+        <v>16</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="1"/>
+        <v>{"g":100,"i":[</v>
+      </c>
+      <c r="H23" t="str">
+        <f>H$6&amp;VLOOKUP(E23,物品!B:C,2,FALSE)</f>
+        <v>{"t":"i","i":22016</v>
+      </c>
+      <c r="I23" t="str">
+        <f t="shared" si="2"/>
+        <v>,"c":16,"tr":0}</v>
+      </c>
+      <c r="J23" t="str">
+        <f t="shared" si="3"/>
+        <v>]}</v>
+      </c>
+      <c r="K23" t="str">
+        <f t="shared" si="4"/>
+        <v>{"g":100,"i":[{"t":"i","i":22016,"c":16,"tr":0}]}</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <f t="shared" si="5"/>
+        <v>100017</v>
+      </c>
+      <c r="B24">
+        <v>100</v>
+      </c>
+      <c r="C24">
+        <v>17</v>
+      </c>
+      <c r="D24">
+        <v>100</v>
+      </c>
+      <c r="E24" t="s">
+        <v>921</v>
+      </c>
+      <c r="F24">
+        <v>17</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="1"/>
+        <v>{"g":100,"i":[</v>
+      </c>
+      <c r="H24" t="str">
+        <f>H$6&amp;VLOOKUP(E24,物品!B:C,2,FALSE)</f>
+        <v>{"t":"i","i":22019</v>
+      </c>
+      <c r="I24" t="str">
+        <f t="shared" si="2"/>
+        <v>,"c":17,"tr":0}</v>
+      </c>
+      <c r="J24" t="str">
+        <f t="shared" si="3"/>
+        <v>]}</v>
+      </c>
+      <c r="K24" t="str">
+        <f t="shared" si="4"/>
+        <v>{"g":100,"i":[{"t":"i","i":22019,"c":17,"tr":0}]}</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <f t="shared" si="5"/>
+        <v>100018</v>
+      </c>
+      <c r="B25">
+        <v>100</v>
+      </c>
+      <c r="C25">
+        <v>18</v>
+      </c>
+      <c r="D25">
+        <v>100</v>
+      </c>
+      <c r="E25" t="s">
+        <v>924</v>
+      </c>
+      <c r="F25">
+        <v>18</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" si="1"/>
+        <v>{"g":100,"i":[</v>
+      </c>
+      <c r="H25" t="str">
+        <f>H$6&amp;VLOOKUP(E25,物品!B:C,2,FALSE)</f>
+        <v>{"t":"i","i":22022</v>
+      </c>
+      <c r="I25" t="str">
+        <f t="shared" si="2"/>
+        <v>,"c":18,"tr":0}</v>
+      </c>
+      <c r="J25" t="str">
+        <f t="shared" si="3"/>
+        <v>]}</v>
+      </c>
+      <c r="K25" t="str">
+        <f t="shared" si="4"/>
+        <v>{"g":100,"i":[{"t":"i","i":22022,"c":18,"tr":0}]}</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <f t="shared" si="5"/>
+        <v>100019</v>
+      </c>
+      <c r="B26">
+        <v>100</v>
+      </c>
+      <c r="C26">
+        <v>19</v>
+      </c>
+      <c r="D26">
+        <v>100</v>
+      </c>
+      <c r="E26" t="s">
+        <v>927</v>
+      </c>
+      <c r="F26">
+        <v>19</v>
+      </c>
+      <c r="G26" t="str">
+        <f t="shared" si="1"/>
+        <v>{"g":100,"i":[</v>
+      </c>
+      <c r="H26" t="str">
+        <f>H$6&amp;VLOOKUP(E26,物品!B:C,2,FALSE)</f>
+        <v>{"t":"i","i":22025</v>
+      </c>
+      <c r="I26" t="str">
+        <f t="shared" si="2"/>
+        <v>,"c":19,"tr":0}</v>
+      </c>
+      <c r="J26" t="str">
+        <f t="shared" si="3"/>
+        <v>]}</v>
+      </c>
+      <c r="K26" t="str">
+        <f t="shared" si="4"/>
+        <v>{"g":100,"i":[{"t":"i","i":22025,"c":19,"tr":0}]}</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <f t="shared" si="5"/>
+        <v>100020</v>
+      </c>
+      <c r="B27">
+        <v>100</v>
+      </c>
+      <c r="C27">
+        <v>20</v>
+      </c>
+      <c r="D27">
+        <v>5</v>
+      </c>
+      <c r="E27" t="s">
+        <v>889</v>
+      </c>
+      <c r="F27">
+        <v>20</v>
+      </c>
+      <c r="G27" t="str">
+        <f t="shared" si="1"/>
+        <v>{"g":5,"i":[</v>
+      </c>
+      <c r="H27" t="str">
+        <f>H$6&amp;VLOOKUP(E27,物品!B:C,2,FALSE)</f>
+        <v>{"t":"i","i":21011</v>
+      </c>
+      <c r="I27" t="str">
+        <f t="shared" si="2"/>
+        <v>,"c":20,"tr":0}</v>
+      </c>
+      <c r="J27" t="str">
+        <f t="shared" si="3"/>
+        <v>]}</v>
+      </c>
+      <c r="K27" t="str">
+        <f t="shared" si="4"/>
+        <v>{"g":5,"i":[{"t":"i","i":21011,"c":20,"tr":0}]}</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A28">
+        <f t="shared" si="5"/>
+        <v>100021</v>
+      </c>
+      <c r="B28">
+        <v>100</v>
+      </c>
+      <c r="C28">
+        <v>21</v>
+      </c>
+      <c r="D28">
+        <v>5</v>
+      </c>
+      <c r="E28" t="s">
+        <v>890</v>
+      </c>
+      <c r="F28">
+        <v>21</v>
+      </c>
+      <c r="G28" t="str">
+        <f t="shared" si="1"/>
+        <v>{"g":5,"i":[</v>
+      </c>
+      <c r="H28" t="str">
+        <f>H$6&amp;VLOOKUP(E28,物品!B:C,2,FALSE)</f>
+        <v>{"t":"i","i":21012</v>
+      </c>
+      <c r="I28" t="str">
+        <f t="shared" si="2"/>
+        <v>,"c":21,"tr":0}</v>
+      </c>
+      <c r="J28" t="str">
+        <f t="shared" si="3"/>
+        <v>]}</v>
+      </c>
+      <c r="K28" t="str">
+        <f t="shared" si="4"/>
+        <v>{"g":5,"i":[{"t":"i","i":21012,"c":21,"tr":0}]}</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <f t="shared" si="5"/>
+        <v>100022</v>
+      </c>
+      <c r="B29">
+        <v>100</v>
+      </c>
+      <c r="C29">
+        <v>22</v>
+      </c>
+      <c r="D29">
+        <v>5</v>
+      </c>
+      <c r="E29" t="s">
+        <v>891</v>
+      </c>
+      <c r="F29">
+        <v>22</v>
+      </c>
+      <c r="G29" t="str">
+        <f t="shared" si="1"/>
+        <v>{"g":5,"i":[</v>
+      </c>
+      <c r="H29" t="str">
+        <f>H$6&amp;VLOOKUP(E29,物品!B:C,2,FALSE)</f>
+        <v>{"t":"i","i":21013</v>
+      </c>
+      <c r="I29" t="str">
+        <f t="shared" si="2"/>
+        <v>,"c":22,"tr":0}</v>
+      </c>
+      <c r="J29" t="str">
+        <f t="shared" si="3"/>
+        <v>]}</v>
+      </c>
+      <c r="K29" t="str">
+        <f t="shared" si="4"/>
+        <v>{"g":5,"i":[{"t":"i","i":21013,"c":22,"tr":0}]}</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A30">
+        <f t="shared" si="5"/>
+        <v>100023</v>
+      </c>
+      <c r="B30">
+        <v>100</v>
+      </c>
+      <c r="C30">
+        <v>23</v>
+      </c>
+      <c r="D30">
+        <v>5</v>
+      </c>
+      <c r="E30" t="s">
+        <v>892</v>
+      </c>
+      <c r="F30">
+        <v>23</v>
+      </c>
+      <c r="G30" t="str">
+        <f t="shared" si="1"/>
+        <v>{"g":5,"i":[</v>
+      </c>
+      <c r="H30" t="str">
+        <f>H$6&amp;VLOOKUP(E30,物品!B:C,2,FALSE)</f>
+        <v>{"t":"i","i":21014</v>
+      </c>
+      <c r="I30" t="str">
+        <f t="shared" si="2"/>
+        <v>,"c":23,"tr":0}</v>
+      </c>
+      <c r="J30" t="str">
+        <f t="shared" si="3"/>
+        <v>]}</v>
+      </c>
+      <c r="K30" t="str">
+        <f t="shared" si="4"/>
+        <v>{"g":5,"i":[{"t":"i","i":21014,"c":23,"tr":0}]}</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <f t="shared" si="5"/>
+        <v>100024</v>
+      </c>
+      <c r="B31">
+        <v>100</v>
+      </c>
+      <c r="C31">
+        <v>24</v>
+      </c>
+      <c r="D31">
+        <v>5</v>
+      </c>
+      <c r="E31" t="s">
+        <v>893</v>
+      </c>
+      <c r="F31">
+        <v>24</v>
+      </c>
+      <c r="G31" t="str">
+        <f t="shared" si="1"/>
+        <v>{"g":5,"i":[</v>
+      </c>
+      <c r="H31" t="str">
+        <f>H$6&amp;VLOOKUP(E31,物品!B:C,2,FALSE)</f>
+        <v>{"t":"i","i":21015</v>
+      </c>
+      <c r="I31" t="str">
+        <f t="shared" si="2"/>
+        <v>,"c":24,"tr":0}</v>
+      </c>
+      <c r="J31" t="str">
+        <f t="shared" si="3"/>
+        <v>]}</v>
+      </c>
+      <c r="K31" t="str">
+        <f t="shared" si="4"/>
+        <v>{"g":5,"i":[{"t":"i","i":21015,"c":24,"tr":0}]}</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A32">
+        <f t="shared" si="5"/>
+        <v>100025</v>
+      </c>
+      <c r="B32">
+        <v>100</v>
+      </c>
+      <c r="C32">
+        <v>25</v>
+      </c>
+      <c r="D32">
+        <v>5</v>
+      </c>
+      <c r="E32" t="s">
+        <v>894</v>
+      </c>
+      <c r="F32">
+        <v>25</v>
+      </c>
+      <c r="G32" t="str">
+        <f t="shared" si="1"/>
+        <v>{"g":5,"i":[</v>
+      </c>
+      <c r="H32" t="str">
+        <f>H$6&amp;VLOOKUP(E32,物品!B:C,2,FALSE)</f>
+        <v>{"t":"i","i":21016</v>
+      </c>
+      <c r="I32" t="str">
+        <f t="shared" si="2"/>
+        <v>,"c":25,"tr":0}</v>
+      </c>
+      <c r="J32" t="str">
+        <f t="shared" si="3"/>
+        <v>]}</v>
+      </c>
+      <c r="K32" t="str">
+        <f t="shared" si="4"/>
+        <v>{"g":5,"i":[{"t":"i","i":21016,"c":25,"tr":0}]}</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A33">
+        <f t="shared" si="5"/>
+        <v>100026</v>
+      </c>
+      <c r="B33">
+        <v>100</v>
+      </c>
+      <c r="C33">
+        <v>26</v>
+      </c>
+      <c r="D33">
+        <v>5</v>
+      </c>
+      <c r="E33" t="s">
+        <v>895</v>
+      </c>
+      <c r="F33">
+        <v>26</v>
+      </c>
+      <c r="G33" t="str">
+        <f t="shared" si="1"/>
+        <v>{"g":5,"i":[</v>
+      </c>
+      <c r="H33" t="str">
+        <f>H$6&amp;VLOOKUP(E33,物品!B:C,2,FALSE)</f>
+        <v>{"t":"i","i":21017</v>
+      </c>
+      <c r="I33" t="str">
+        <f t="shared" si="2"/>
+        <v>,"c":26,"tr":0}</v>
+      </c>
+      <c r="J33" t="str">
+        <f t="shared" si="3"/>
+        <v>]}</v>
+      </c>
+      <c r="K33" t="str">
+        <f t="shared" si="4"/>
+        <v>{"g":5,"i":[{"t":"i","i":21017,"c":26,"tr":0}]}</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A34">
+        <f t="shared" si="5"/>
+        <v>100027</v>
+      </c>
+      <c r="B34">
+        <v>100</v>
+      </c>
+      <c r="C34">
+        <v>27</v>
+      </c>
+      <c r="D34">
+        <v>10</v>
+      </c>
+      <c r="E34" t="s">
+        <v>904</v>
+      </c>
+      <c r="F34">
+        <v>27</v>
+      </c>
+      <c r="G34" t="str">
+        <f t="shared" si="1"/>
+        <v>{"g":10,"i":[</v>
+      </c>
+      <c r="H34" t="str">
+        <f>H$6&amp;VLOOKUP(E34,物品!B:C,2,FALSE)</f>
+        <v>{"t":"i","i":22002</v>
+      </c>
+      <c r="I34" t="str">
+        <f t="shared" si="2"/>
+        <v>,"c":27,"tr":0}</v>
+      </c>
+      <c r="J34" t="str">
+        <f t="shared" si="3"/>
+        <v>]}</v>
+      </c>
+      <c r="K34" t="str">
+        <f t="shared" si="4"/>
+        <v>{"g":10,"i":[{"t":"i","i":22002,"c":27,"tr":0}]}</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A35">
+        <f t="shared" si="5"/>
+        <v>100028</v>
+      </c>
+      <c r="B35">
+        <v>100</v>
+      </c>
+      <c r="C35">
+        <v>28</v>
+      </c>
+      <c r="D35">
+        <v>10</v>
+      </c>
+      <c r="E35" t="s">
+        <v>907</v>
+      </c>
+      <c r="F35">
+        <v>28</v>
+      </c>
+      <c r="G35" t="str">
+        <f t="shared" si="1"/>
+        <v>{"g":10,"i":[</v>
+      </c>
+      <c r="H35" t="str">
+        <f>H$6&amp;VLOOKUP(E35,物品!B:C,2,FALSE)</f>
+        <v>{"t":"i","i":22005</v>
+      </c>
+      <c r="I35" t="str">
+        <f t="shared" si="2"/>
+        <v>,"c":28,"tr":0}</v>
+      </c>
+      <c r="J35" t="str">
+        <f t="shared" si="3"/>
+        <v>]}</v>
+      </c>
+      <c r="K35" t="str">
+        <f t="shared" si="4"/>
+        <v>{"g":10,"i":[{"t":"i","i":22005,"c":28,"tr":0}]}</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A36">
+        <f t="shared" si="5"/>
+        <v>100029</v>
+      </c>
+      <c r="B36">
+        <v>100</v>
+      </c>
+      <c r="C36">
+        <v>29</v>
+      </c>
+      <c r="D36">
+        <v>10</v>
+      </c>
+      <c r="E36" t="s">
+        <v>910</v>
+      </c>
+      <c r="F36">
+        <v>29</v>
+      </c>
+      <c r="G36" t="str">
+        <f t="shared" si="1"/>
+        <v>{"g":10,"i":[</v>
+      </c>
+      <c r="H36" t="str">
+        <f>H$6&amp;VLOOKUP(E36,物品!B:C,2,FALSE)</f>
+        <v>{"t":"i","i":22008</v>
+      </c>
+      <c r="I36" t="str">
+        <f t="shared" si="2"/>
+        <v>,"c":29,"tr":0}</v>
+      </c>
+      <c r="J36" t="str">
+        <f t="shared" si="3"/>
+        <v>]}</v>
+      </c>
+      <c r="K36" t="str">
+        <f t="shared" si="4"/>
+        <v>{"g":10,"i":[{"t":"i","i":22008,"c":29,"tr":0}]}</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A37">
+        <f t="shared" si="5"/>
+        <v>100030</v>
+      </c>
+      <c r="B37">
+        <v>100</v>
+      </c>
+      <c r="C37">
+        <v>30</v>
+      </c>
+      <c r="D37">
+        <v>10</v>
+      </c>
+      <c r="E37" t="s">
+        <v>913</v>
+      </c>
+      <c r="F37">
+        <v>30</v>
+      </c>
+      <c r="G37" t="str">
+        <f t="shared" si="1"/>
+        <v>{"g":10,"i":[</v>
+      </c>
+      <c r="H37" t="str">
+        <f>H$6&amp;VLOOKUP(E37,物品!B:C,2,FALSE)</f>
+        <v>{"t":"i","i":22011</v>
+      </c>
+      <c r="I37" t="str">
+        <f t="shared" si="2"/>
+        <v>,"c":30,"tr":0}</v>
+      </c>
+      <c r="J37" t="str">
+        <f t="shared" si="3"/>
+        <v>]}</v>
+      </c>
+      <c r="K37" t="str">
+        <f t="shared" si="4"/>
+        <v>{"g":10,"i":[{"t":"i","i":22011,"c":30,"tr":0}]}</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A38">
+        <f t="shared" si="5"/>
+        <v>100031</v>
+      </c>
+      <c r="B38">
+        <v>100</v>
+      </c>
+      <c r="C38">
+        <v>31</v>
+      </c>
+      <c r="D38">
+        <v>10</v>
+      </c>
+      <c r="E38" t="s">
+        <v>916</v>
+      </c>
+      <c r="F38">
+        <v>31</v>
+      </c>
+      <c r="G38" t="str">
+        <f t="shared" si="1"/>
+        <v>{"g":10,"i":[</v>
+      </c>
+      <c r="H38" t="str">
+        <f>H$6&amp;VLOOKUP(E38,物品!B:C,2,FALSE)</f>
+        <v>{"t":"i","i":22014</v>
+      </c>
+      <c r="I38" t="str">
+        <f t="shared" si="2"/>
+        <v>,"c":31,"tr":0}</v>
+      </c>
+      <c r="J38" t="str">
+        <f t="shared" si="3"/>
+        <v>]}</v>
+      </c>
+      <c r="K38" t="str">
+        <f t="shared" si="4"/>
+        <v>{"g":10,"i":[{"t":"i","i":22014,"c":31,"tr":0}]}</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A39">
+        <f t="shared" si="5"/>
+        <v>100032</v>
+      </c>
+      <c r="B39">
+        <v>100</v>
+      </c>
+      <c r="C39">
+        <v>32</v>
+      </c>
+      <c r="D39">
+        <v>10</v>
+      </c>
+      <c r="E39" t="s">
+        <v>919</v>
+      </c>
+      <c r="F39">
+        <v>32</v>
+      </c>
+      <c r="G39" t="str">
+        <f t="shared" si="1"/>
+        <v>{"g":10,"i":[</v>
+      </c>
+      <c r="H39" t="str">
+        <f>H$6&amp;VLOOKUP(E39,物品!B:C,2,FALSE)</f>
+        <v>{"t":"i","i":22017</v>
+      </c>
+      <c r="I39" t="str">
+        <f t="shared" si="2"/>
+        <v>,"c":32,"tr":0}</v>
+      </c>
+      <c r="J39" t="str">
+        <f t="shared" si="3"/>
+        <v>]}</v>
+      </c>
+      <c r="K39" t="str">
+        <f t="shared" si="4"/>
+        <v>{"g":10,"i":[{"t":"i","i":22017,"c":32,"tr":0}]}</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A40">
+        <f t="shared" si="5"/>
+        <v>100033</v>
+      </c>
+      <c r="B40">
+        <v>100</v>
+      </c>
+      <c r="C40">
+        <v>33</v>
+      </c>
+      <c r="D40">
+        <v>10</v>
+      </c>
+      <c r="E40" t="s">
+        <v>922</v>
+      </c>
+      <c r="F40">
+        <v>33</v>
+      </c>
+      <c r="G40" t="str">
+        <f t="shared" si="1"/>
+        <v>{"g":10,"i":[</v>
+      </c>
+      <c r="H40" t="str">
+        <f>H$6&amp;VLOOKUP(E40,物品!B:C,2,FALSE)</f>
+        <v>{"t":"i","i":22020</v>
+      </c>
+      <c r="I40" t="str">
+        <f t="shared" si="2"/>
+        <v>,"c":33,"tr":0}</v>
+      </c>
+      <c r="J40" t="str">
+        <f t="shared" si="3"/>
+        <v>]}</v>
+      </c>
+      <c r="K40" t="str">
+        <f t="shared" si="4"/>
+        <v>{"g":10,"i":[{"t":"i","i":22020,"c":33,"tr":0}]}</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A41">
+        <f t="shared" si="5"/>
+        <v>100034</v>
+      </c>
+      <c r="B41">
+        <v>100</v>
+      </c>
+      <c r="C41">
+        <v>34</v>
+      </c>
+      <c r="D41">
+        <v>10</v>
+      </c>
+      <c r="E41" t="s">
+        <v>925</v>
+      </c>
+      <c r="F41">
+        <v>34</v>
+      </c>
+      <c r="G41" t="str">
+        <f t="shared" si="1"/>
+        <v>{"g":10,"i":[</v>
+      </c>
+      <c r="H41" t="str">
+        <f>H$6&amp;VLOOKUP(E41,物品!B:C,2,FALSE)</f>
+        <v>{"t":"i","i":22023</v>
+      </c>
+      <c r="I41" t="str">
+        <f t="shared" si="2"/>
+        <v>,"c":34,"tr":0}</v>
+      </c>
+      <c r="J41" t="str">
+        <f t="shared" si="3"/>
+        <v>]}</v>
+      </c>
+      <c r="K41" t="str">
+        <f t="shared" si="4"/>
+        <v>{"g":10,"i":[{"t":"i","i":22023,"c":34,"tr":0}]}</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A42">
+        <f t="shared" si="5"/>
+        <v>100035</v>
+      </c>
+      <c r="B42">
+        <v>100</v>
+      </c>
+      <c r="C42">
+        <v>35</v>
+      </c>
+      <c r="D42">
+        <v>10</v>
+      </c>
+      <c r="E42" t="s">
+        <v>928</v>
+      </c>
+      <c r="F42">
+        <v>35</v>
+      </c>
+      <c r="G42" t="str">
+        <f t="shared" si="1"/>
+        <v>{"g":10,"i":[</v>
+      </c>
+      <c r="H42" t="str">
+        <f>H$6&amp;VLOOKUP(E42,物品!B:C,2,FALSE)</f>
+        <v>{"t":"i","i":22026</v>
+      </c>
+      <c r="I42" t="str">
+        <f t="shared" si="2"/>
+        <v>,"c":35,"tr":0}</v>
+      </c>
+      <c r="J42" t="str">
+        <f t="shared" si="3"/>
+        <v>]}</v>
+      </c>
+      <c r="K42" t="str">
+        <f t="shared" si="4"/>
+        <v>{"g":10,"i":[{"t":"i","i":22026,"c":35,"tr":0}]}</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A43">
+        <f t="shared" si="5"/>
+        <v>200001</v>
+      </c>
+      <c r="B43">
         <v>200</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>100</v>
+      </c>
+      <c r="E43" t="s">
+        <v>896</v>
+      </c>
+      <c r="F43">
+        <v>36</v>
+      </c>
+      <c r="G43" t="str">
+        <f t="shared" si="1"/>
+        <v>{"g":100,"i":[</v>
+      </c>
+      <c r="H43" t="str">
+        <f>H$6&amp;VLOOKUP(E43,物品!B:C,2,FALSE)</f>
+        <v>{"t":"i","i":21018</v>
+      </c>
+      <c r="I43" t="str">
+        <f t="shared" si="2"/>
+        <v>,"c":36,"tr":0}</v>
+      </c>
+      <c r="J43" t="str">
+        <f t="shared" si="3"/>
+        <v>]}</v>
+      </c>
+      <c r="K43" t="str">
+        <f t="shared" si="4"/>
+        <v>{"g":100,"i":[{"t":"i","i":21018,"c":36,"tr":0}]}</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A44">
+        <f t="shared" ref="A44:A65" si="6">B44*1000+C44</f>
+        <v>200002</v>
+      </c>
+      <c r="B44">
+        <v>200</v>
+      </c>
+      <c r="C44">
+        <v>2</v>
+      </c>
+      <c r="D44">
+        <v>100</v>
+      </c>
+      <c r="E44" t="s">
+        <v>897</v>
+      </c>
+      <c r="F44">
+        <v>37</v>
+      </c>
+      <c r="G44" t="str">
+        <f t="shared" si="1"/>
+        <v>{"g":100,"i":[</v>
+      </c>
+      <c r="H44" t="str">
+        <f>H$6&amp;VLOOKUP(E44,物品!B:C,2,FALSE)</f>
+        <v>{"t":"i","i":21019</v>
+      </c>
+      <c r="I44" t="str">
+        <f t="shared" si="2"/>
+        <v>,"c":37,"tr":0}</v>
+      </c>
+      <c r="J44" t="str">
+        <f t="shared" si="3"/>
+        <v>]}</v>
+      </c>
+      <c r="K44" t="str">
+        <f t="shared" si="4"/>
+        <v>{"g":100,"i":[{"t":"i","i":21019,"c":37,"tr":0}]}</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A45">
+        <f t="shared" si="6"/>
+        <v>200003</v>
+      </c>
+      <c r="B45">
+        <v>200</v>
+      </c>
+      <c r="C45">
+        <v>3</v>
+      </c>
+      <c r="D45">
+        <v>100</v>
+      </c>
+      <c r="E45" t="s">
+        <v>898</v>
+      </c>
+      <c r="F45">
+        <v>38</v>
+      </c>
+      <c r="G45" t="str">
+        <f t="shared" si="1"/>
+        <v>{"g":100,"i":[</v>
+      </c>
+      <c r="H45" t="str">
+        <f>H$6&amp;VLOOKUP(E45,物品!B:C,2,FALSE)</f>
+        <v>{"t":"i","i":21020</v>
+      </c>
+      <c r="I45" t="str">
+        <f t="shared" si="2"/>
+        <v>,"c":38,"tr":0}</v>
+      </c>
+      <c r="J45" t="str">
+        <f t="shared" si="3"/>
+        <v>]}</v>
+      </c>
+      <c r="K45" t="str">
+        <f t="shared" si="4"/>
+        <v>{"g":100,"i":[{"t":"i","i":21020,"c":38,"tr":0}]}</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A46">
+        <f t="shared" si="6"/>
+        <v>200004</v>
+      </c>
+      <c r="B46">
+        <v>200</v>
+      </c>
+      <c r="C46">
+        <v>4</v>
+      </c>
+      <c r="D46">
+        <v>100</v>
+      </c>
+      <c r="E46" t="s">
+        <v>899</v>
+      </c>
+      <c r="F46">
+        <v>39</v>
+      </c>
+      <c r="G46" t="str">
+        <f t="shared" si="1"/>
+        <v>{"g":100,"i":[</v>
+      </c>
+      <c r="H46" t="str">
+        <f>H$6&amp;VLOOKUP(E46,物品!B:C,2,FALSE)</f>
+        <v>{"t":"i","i":21021</v>
+      </c>
+      <c r="I46" t="str">
+        <f t="shared" si="2"/>
+        <v>,"c":39,"tr":0}</v>
+      </c>
+      <c r="J46" t="str">
+        <f t="shared" si="3"/>
+        <v>]}</v>
+      </c>
+      <c r="K46" t="str">
+        <f t="shared" si="4"/>
+        <v>{"g":100,"i":[{"t":"i","i":21021,"c":39,"tr":0}]}</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A47">
+        <f t="shared" si="6"/>
+        <v>200005</v>
+      </c>
+      <c r="B47">
+        <v>200</v>
+      </c>
+      <c r="C47">
+        <v>5</v>
+      </c>
+      <c r="D47">
+        <v>100</v>
+      </c>
+      <c r="E47" t="s">
+        <v>900</v>
+      </c>
+      <c r="F47">
+        <v>40</v>
+      </c>
+      <c r="G47" t="str">
+        <f t="shared" si="1"/>
+        <v>{"g":100,"i":[</v>
+      </c>
+      <c r="H47" t="str">
+        <f>H$6&amp;VLOOKUP(E47,物品!B:C,2,FALSE)</f>
+        <v>{"t":"i","i":21022</v>
+      </c>
+      <c r="I47" t="str">
+        <f t="shared" si="2"/>
+        <v>,"c":40,"tr":0}</v>
+      </c>
+      <c r="J47" t="str">
+        <f t="shared" si="3"/>
+        <v>]}</v>
+      </c>
+      <c r="K47" t="str">
+        <f t="shared" si="4"/>
+        <v>{"g":100,"i":[{"t":"i","i":21022,"c":40,"tr":0}]}</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A48">
+        <f t="shared" si="6"/>
+        <v>200006</v>
+      </c>
+      <c r="B48">
+        <v>200</v>
+      </c>
+      <c r="C48">
+        <v>6</v>
+      </c>
+      <c r="D48">
+        <v>100</v>
+      </c>
+      <c r="E48" t="s">
+        <v>901</v>
+      </c>
+      <c r="F48">
+        <v>41</v>
+      </c>
+      <c r="G48" t="str">
+        <f t="shared" si="1"/>
+        <v>{"g":100,"i":[</v>
+      </c>
+      <c r="H48" t="str">
+        <f>H$6&amp;VLOOKUP(E48,物品!B:C,2,FALSE)</f>
+        <v>{"t":"i","i":21023</v>
+      </c>
+      <c r="I48" t="str">
+        <f t="shared" si="2"/>
+        <v>,"c":41,"tr":0}</v>
+      </c>
+      <c r="J48" t="str">
+        <f t="shared" si="3"/>
+        <v>]}</v>
+      </c>
+      <c r="K48" t="str">
+        <f t="shared" si="4"/>
+        <v>{"g":100,"i":[{"t":"i","i":21023,"c":41,"tr":0}]}</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A49">
+        <f t="shared" si="6"/>
+        <v>200007</v>
+      </c>
+      <c r="B49">
+        <v>200</v>
+      </c>
+      <c r="C49">
+        <v>7</v>
+      </c>
+      <c r="D49">
+        <v>100</v>
+      </c>
+      <c r="E49" t="s">
+        <v>902</v>
+      </c>
+      <c r="F49">
+        <v>42</v>
+      </c>
+      <c r="G49" t="str">
+        <f t="shared" si="1"/>
+        <v>{"g":100,"i":[</v>
+      </c>
+      <c r="H49" t="str">
+        <f>H$6&amp;VLOOKUP(E49,物品!B:C,2,FALSE)</f>
+        <v>{"t":"i","i":21024</v>
+      </c>
+      <c r="I49" t="str">
+        <f t="shared" si="2"/>
+        <v>,"c":42,"tr":0}</v>
+      </c>
+      <c r="J49" t="str">
+        <f t="shared" si="3"/>
+        <v>]}</v>
+      </c>
+      <c r="K49" t="str">
+        <f t="shared" si="4"/>
+        <v>{"g":100,"i":[{"t":"i","i":21024,"c":42,"tr":0}]}</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A50">
+        <f t="shared" si="6"/>
+        <v>200008</v>
+      </c>
+      <c r="B50">
+        <v>200</v>
+      </c>
+      <c r="C50">
+        <v>8</v>
+      </c>
+      <c r="D50">
+        <v>100</v>
+      </c>
+      <c r="E50" t="s">
+        <v>905</v>
+      </c>
+      <c r="F50">
+        <v>43</v>
+      </c>
+      <c r="G50" t="str">
+        <f t="shared" si="1"/>
+        <v>{"g":100,"i":[</v>
+      </c>
+      <c r="H50" t="str">
+        <f>H$6&amp;VLOOKUP(E50,物品!B:C,2,FALSE)</f>
+        <v>{"t":"i","i":22003</v>
+      </c>
+      <c r="I50" t="str">
+        <f t="shared" si="2"/>
+        <v>,"c":43,"tr":0}</v>
+      </c>
+      <c r="J50" t="str">
+        <f t="shared" si="3"/>
+        <v>]}</v>
+      </c>
+      <c r="K50" t="str">
+        <f t="shared" si="4"/>
+        <v>{"g":100,"i":[{"t":"i","i":22003,"c":43,"tr":0}]}</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A51">
+        <f t="shared" si="6"/>
+        <v>200009</v>
+      </c>
+      <c r="B51">
+        <v>200</v>
+      </c>
+      <c r="C51">
+        <v>9</v>
+      </c>
+      <c r="D51">
+        <v>100</v>
+      </c>
+      <c r="E51" t="s">
+        <v>908</v>
+      </c>
+      <c r="F51">
+        <v>44</v>
+      </c>
+      <c r="G51" t="str">
+        <f t="shared" si="1"/>
+        <v>{"g":100,"i":[</v>
+      </c>
+      <c r="H51" t="str">
+        <f>H$6&amp;VLOOKUP(E51,物品!B:C,2,FALSE)</f>
+        <v>{"t":"i","i":22006</v>
+      </c>
+      <c r="I51" t="str">
+        <f t="shared" si="2"/>
+        <v>,"c":44,"tr":0}</v>
+      </c>
+      <c r="J51" t="str">
+        <f t="shared" si="3"/>
+        <v>]}</v>
+      </c>
+      <c r="K51" t="str">
+        <f t="shared" si="4"/>
+        <v>{"g":100,"i":[{"t":"i","i":22006,"c":44,"tr":0}]}</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A52">
+        <f t="shared" si="6"/>
+        <v>200010</v>
+      </c>
+      <c r="B52">
+        <v>200</v>
+      </c>
+      <c r="C52">
+        <v>10</v>
+      </c>
+      <c r="D52">
+        <v>100</v>
+      </c>
+      <c r="E52" t="s">
+        <v>911</v>
+      </c>
+      <c r="F52">
+        <v>45</v>
+      </c>
+      <c r="G52" t="str">
+        <f t="shared" si="1"/>
+        <v>{"g":100,"i":[</v>
+      </c>
+      <c r="H52" t="str">
+        <f>H$6&amp;VLOOKUP(E52,物品!B:C,2,FALSE)</f>
+        <v>{"t":"i","i":22009</v>
+      </c>
+      <c r="I52" t="str">
+        <f t="shared" si="2"/>
+        <v>,"c":45,"tr":0}</v>
+      </c>
+      <c r="J52" t="str">
+        <f t="shared" si="3"/>
+        <v>]}</v>
+      </c>
+      <c r="K52" t="str">
+        <f t="shared" si="4"/>
+        <v>{"g":100,"i":[{"t":"i","i":22009,"c":45,"tr":0}]}</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A53">
+        <f t="shared" si="6"/>
+        <v>200011</v>
+      </c>
+      <c r="B53">
+        <v>200</v>
+      </c>
+      <c r="C53">
+        <v>11</v>
+      </c>
+      <c r="D53">
+        <v>100</v>
+      </c>
+      <c r="E53" t="s">
+        <v>914</v>
+      </c>
+      <c r="F53">
+        <v>46</v>
+      </c>
+      <c r="G53" t="str">
+        <f t="shared" si="1"/>
+        <v>{"g":100,"i":[</v>
+      </c>
+      <c r="H53" t="str">
+        <f>H$6&amp;VLOOKUP(E53,物品!B:C,2,FALSE)</f>
+        <v>{"t":"i","i":22012</v>
+      </c>
+      <c r="I53" t="str">
+        <f t="shared" si="2"/>
+        <v>,"c":46,"tr":0}</v>
+      </c>
+      <c r="J53" t="str">
+        <f t="shared" si="3"/>
+        <v>]}</v>
+      </c>
+      <c r="K53" t="str">
+        <f t="shared" si="4"/>
+        <v>{"g":100,"i":[{"t":"i","i":22012,"c":46,"tr":0}]}</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A54">
+        <f t="shared" si="6"/>
+        <v>200012</v>
+      </c>
+      <c r="B54">
+        <v>200</v>
+      </c>
+      <c r="C54">
+        <v>12</v>
+      </c>
+      <c r="D54">
+        <v>100</v>
+      </c>
+      <c r="E54" t="s">
+        <v>917</v>
+      </c>
+      <c r="F54">
+        <v>47</v>
+      </c>
+      <c r="G54" t="str">
+        <f t="shared" si="1"/>
+        <v>{"g":100,"i":[</v>
+      </c>
+      <c r="H54" t="str">
+        <f>H$6&amp;VLOOKUP(E54,物品!B:C,2,FALSE)</f>
+        <v>{"t":"i","i":22015</v>
+      </c>
+      <c r="I54" t="str">
+        <f t="shared" si="2"/>
+        <v>,"c":47,"tr":0}</v>
+      </c>
+      <c r="J54" t="str">
+        <f t="shared" si="3"/>
+        <v>]}</v>
+      </c>
+      <c r="K54" t="str">
+        <f t="shared" si="4"/>
+        <v>{"g":100,"i":[{"t":"i","i":22015,"c":47,"tr":0}]}</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A55">
+        <f t="shared" si="6"/>
+        <v>200013</v>
+      </c>
+      <c r="B55">
+        <v>200</v>
+      </c>
+      <c r="C55">
+        <v>13</v>
+      </c>
+      <c r="D55">
+        <v>100</v>
+      </c>
+      <c r="E55" t="s">
+        <v>920</v>
+      </c>
+      <c r="F55">
+        <v>48</v>
+      </c>
+      <c r="G55" t="str">
+        <f t="shared" si="1"/>
+        <v>{"g":100,"i":[</v>
+      </c>
+      <c r="H55" t="str">
+        <f>H$6&amp;VLOOKUP(E55,物品!B:C,2,FALSE)</f>
+        <v>{"t":"i","i":22018</v>
+      </c>
+      <c r="I55" t="str">
+        <f t="shared" si="2"/>
+        <v>,"c":48,"tr":0}</v>
+      </c>
+      <c r="J55" t="str">
+        <f t="shared" si="3"/>
+        <v>]}</v>
+      </c>
+      <c r="K55" t="str">
+        <f t="shared" si="4"/>
+        <v>{"g":100,"i":[{"t":"i","i":22018,"c":48,"tr":0}]}</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A56">
+        <f t="shared" si="6"/>
+        <v>200014</v>
+      </c>
+      <c r="B56">
+        <v>200</v>
+      </c>
+      <c r="C56">
+        <v>14</v>
+      </c>
+      <c r="D56">
+        <v>100</v>
+      </c>
+      <c r="E56" t="s">
+        <v>923</v>
+      </c>
+      <c r="F56">
+        <v>49</v>
+      </c>
+      <c r="G56" t="str">
+        <f t="shared" si="1"/>
+        <v>{"g":100,"i":[</v>
+      </c>
+      <c r="H56" t="str">
+        <f>H$6&amp;VLOOKUP(E56,物品!B:C,2,FALSE)</f>
+        <v>{"t":"i","i":22021</v>
+      </c>
+      <c r="I56" t="str">
+        <f t="shared" si="2"/>
+        <v>,"c":49,"tr":0}</v>
+      </c>
+      <c r="J56" t="str">
+        <f t="shared" si="3"/>
+        <v>]}</v>
+      </c>
+      <c r="K56" t="str">
+        <f t="shared" si="4"/>
+        <v>{"g":100,"i":[{"t":"i","i":22021,"c":49,"tr":0}]}</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A57">
+        <f t="shared" si="6"/>
+        <v>200015</v>
+      </c>
+      <c r="B57">
+        <v>200</v>
+      </c>
+      <c r="C57">
+        <v>15</v>
+      </c>
+      <c r="D57">
+        <v>100</v>
+      </c>
+      <c r="E57" t="s">
+        <v>926</v>
+      </c>
+      <c r="F57">
+        <v>50</v>
+      </c>
+      <c r="G57" t="str">
+        <f t="shared" si="1"/>
+        <v>{"g":100,"i":[</v>
+      </c>
+      <c r="H57" t="str">
+        <f>H$6&amp;VLOOKUP(E57,物品!B:C,2,FALSE)</f>
+        <v>{"t":"i","i":22024</v>
+      </c>
+      <c r="I57" t="str">
+        <f t="shared" si="2"/>
+        <v>,"c":50,"tr":0}</v>
+      </c>
+      <c r="J57" t="str">
+        <f t="shared" si="3"/>
+        <v>]}</v>
+      </c>
+      <c r="K57" t="str">
+        <f t="shared" si="4"/>
+        <v>{"g":100,"i":[{"t":"i","i":22024,"c":50,"tr":0}]}</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A58">
+        <f t="shared" si="6"/>
+        <v>200016</v>
+      </c>
+      <c r="B58">
+        <v>200</v>
+      </c>
+      <c r="C58">
+        <v>16</v>
+      </c>
+      <c r="D58">
+        <v>100</v>
+      </c>
+      <c r="E58" t="s">
+        <v>929</v>
+      </c>
+      <c r="F58">
+        <v>51</v>
+      </c>
+      <c r="G58" t="str">
+        <f t="shared" si="1"/>
+        <v>{"g":100,"i":[</v>
+      </c>
+      <c r="H58" t="str">
+        <f>H$6&amp;VLOOKUP(E58,物品!B:C,2,FALSE)</f>
+        <v>{"t":"i","i":22027</v>
+      </c>
+      <c r="I58" t="str">
+        <f t="shared" si="2"/>
+        <v>,"c":51,"tr":0}</v>
+      </c>
+      <c r="J58" t="str">
+        <f t="shared" si="3"/>
+        <v>]}</v>
+      </c>
+      <c r="K58" t="str">
+        <f t="shared" si="4"/>
+        <v>{"g":100,"i":[{"t":"i","i":22027,"c":51,"tr":0}]}</v>
       </c>
     </row>
   </sheetData>
@@ -19883,10 +22290,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K93"/>
+  <dimension ref="A1:K146"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="B113" sqref="B113:B119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -22259,7 +24666,7 @@
         <v>87</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>863</v>
+        <v>876</v>
       </c>
       <c r="C71" s="1">
         <f t="shared" si="1"/>
@@ -22324,14 +24731,14 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A73" s="2">
-        <v>10001</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>108</v>
+        <v>89</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>877</v>
       </c>
       <c r="C73" s="1">
         <f t="shared" si="1"/>
-        <v>10001</v>
+        <v>89</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>109</v>
@@ -22358,14 +24765,14 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A74" s="2">
-        <v>10002</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>110</v>
+        <v>90</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>878</v>
       </c>
       <c r="C74" s="1">
         <f t="shared" si="1"/>
-        <v>10002</v>
+        <v>90</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>111</v>
@@ -22392,14 +24799,14 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A75" s="2">
-        <v>10003</v>
+        <v>10001</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C75" s="1">
         <f t="shared" si="1"/>
-        <v>10003</v>
+        <v>10001</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>113</v>
@@ -22426,14 +24833,14 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A76" s="2">
-        <v>10004</v>
+        <v>10002</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C76" s="1">
         <f t="shared" si="1"/>
-        <v>10004</v>
+        <v>10002</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>115</v>
@@ -22460,14 +24867,14 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A77" s="2">
-        <v>10005</v>
+        <v>10003</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C77" s="1">
         <f t="shared" si="1"/>
-        <v>10005</v>
+        <v>10003</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>117</v>
@@ -22494,14 +24901,14 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A78" s="2">
-        <v>10006</v>
+        <v>10004</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C78" s="1">
         <f t="shared" si="1"/>
-        <v>10006</v>
+        <v>10004</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>119</v>
@@ -22528,10 +24935,15 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A79" s="2">
-        <v>10007</v>
-      </c>
-      <c r="B79" s="1"/>
-      <c r="C79" s="1"/>
+        <v>10005</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C79" s="1">
+        <f>A79</f>
+        <v>10005</v>
+      </c>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
@@ -22547,12 +24959,15 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A80" s="2">
-        <v>10008</v>
+        <v>10006</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>864</v>
-      </c>
-      <c r="C80" s="1"/>
+        <v>118</v>
+      </c>
+      <c r="C80" s="1">
+        <f t="shared" ref="C80" si="2">A80</f>
+        <v>10006</v>
+      </c>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
@@ -22568,12 +24983,13 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A81" s="2">
-        <v>11001</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C81" s="1"/>
+        <v>10007</v>
+      </c>
+      <c r="B81" s="1"/>
+      <c r="C81" s="1">
+        <f>A81</f>
+        <v>10007</v>
+      </c>
       <c r="D81" s="1" t="s">
         <v>121</v>
       </c>
@@ -22599,12 +25015,13 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A82" s="2">
-        <v>11002</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C82" s="1"/>
+        <v>10008</v>
+      </c>
+      <c r="B82" s="1"/>
+      <c r="C82" s="1">
+        <f t="shared" ref="C82:C145" si="3">A82</f>
+        <v>10008</v>
+      </c>
       <c r="D82" s="1" t="s">
         <v>123</v>
       </c>
@@ -22630,12 +25047,15 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A83" s="2">
-        <v>11003</v>
+        <v>11001</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C83" s="1"/>
+        <v>120</v>
+      </c>
+      <c r="C83" s="1">
+        <f t="shared" si="3"/>
+        <v>11001</v>
+      </c>
       <c r="D83" s="1" t="s">
         <v>125</v>
       </c>
@@ -22661,12 +25081,15 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A84" s="2">
-        <v>11004</v>
+        <v>11002</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C84" s="1"/>
+        <v>122</v>
+      </c>
+      <c r="C84" s="1">
+        <f t="shared" si="3"/>
+        <v>11002</v>
+      </c>
       <c r="D84" s="1" t="s">
         <v>127</v>
       </c>
@@ -22692,12 +25115,15 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A85" s="2">
-        <v>11005</v>
+        <v>11003</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C85" s="1"/>
+        <v>124</v>
+      </c>
+      <c r="C85" s="1">
+        <f t="shared" si="3"/>
+        <v>11003</v>
+      </c>
       <c r="D85" s="1" t="s">
         <v>129</v>
       </c>
@@ -22723,12 +25149,15 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A86" s="2">
-        <v>11006</v>
+        <v>11004</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C86" s="1"/>
+        <v>126</v>
+      </c>
+      <c r="C86" s="1">
+        <f t="shared" si="3"/>
+        <v>11004</v>
+      </c>
       <c r="D86" s="1" t="s">
         <v>131</v>
       </c>
@@ -22754,12 +25183,15 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A87" s="2">
-        <v>11007</v>
+        <v>11005</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C87" s="1"/>
+        <v>128</v>
+      </c>
+      <c r="C87" s="1">
+        <f t="shared" si="3"/>
+        <v>11005</v>
+      </c>
       <c r="D87" s="1" t="s">
         <v>133</v>
       </c>
@@ -22785,12 +25217,15 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A88" s="2">
-        <v>11008</v>
+        <v>11006</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C88" s="1"/>
+        <v>130</v>
+      </c>
+      <c r="C88" s="1">
+        <f t="shared" si="3"/>
+        <v>11006</v>
+      </c>
       <c r="D88" s="1" t="s">
         <v>135</v>
       </c>
@@ -22816,12 +25251,15 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A89" s="2">
-        <v>11009</v>
+        <v>11007</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C89" s="1"/>
+        <v>132</v>
+      </c>
+      <c r="C89" s="1">
+        <f t="shared" si="3"/>
+        <v>11007</v>
+      </c>
       <c r="D89" s="1" t="s">
         <v>137</v>
       </c>
@@ -22847,12 +25285,15 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A90" s="2">
-        <v>11010</v>
+        <v>11008</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C90" s="1"/>
+        <v>134</v>
+      </c>
+      <c r="C90" s="1">
+        <f t="shared" si="3"/>
+        <v>11008</v>
+      </c>
       <c r="D90" s="1" t="s">
         <v>139</v>
       </c>
@@ -22878,12 +25319,15 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A91" s="2">
-        <v>11501</v>
+        <v>11009</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C91" s="1"/>
+        <v>136</v>
+      </c>
+      <c r="C91" s="1">
+        <f t="shared" si="3"/>
+        <v>11009</v>
+      </c>
       <c r="D91" s="1" t="s">
         <v>141</v>
       </c>
@@ -22909,12 +25353,15 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A92" s="2">
-        <v>11502</v>
+        <v>11010</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C92" s="1"/>
+        <v>138</v>
+      </c>
+      <c r="C92" s="1">
+        <f t="shared" si="3"/>
+        <v>11010</v>
+      </c>
       <c r="D92" s="1" t="s">
         <v>143</v>
       </c>
@@ -22940,12 +25387,15 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A93" s="2">
-        <v>11503</v>
+        <v>11501</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C93" s="1"/>
+        <v>140</v>
+      </c>
+      <c r="C93" s="1">
+        <f t="shared" si="3"/>
+        <v>11501</v>
+      </c>
       <c r="D93" s="1" t="s">
         <v>145</v>
       </c>
@@ -22967,6 +25417,642 @@
       </c>
       <c r="K93" s="2">
         <v>7</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A94" s="2">
+        <v>11502</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C94" s="1">
+        <f t="shared" si="3"/>
+        <v>11502</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A95" s="2">
+        <v>11503</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C95" s="1">
+        <f t="shared" si="3"/>
+        <v>11503</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A96">
+        <v>21001</v>
+      </c>
+      <c r="B96" t="s">
+        <v>879</v>
+      </c>
+      <c r="C96" s="1">
+        <f t="shared" si="3"/>
+        <v>21001</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A97">
+        <v>21002</v>
+      </c>
+      <c r="B97" t="s">
+        <v>880</v>
+      </c>
+      <c r="C97" s="1">
+        <f t="shared" si="3"/>
+        <v>21002</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A98">
+        <v>21003</v>
+      </c>
+      <c r="B98" t="s">
+        <v>881</v>
+      </c>
+      <c r="C98" s="1">
+        <f t="shared" si="3"/>
+        <v>21003</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A99">
+        <v>21004</v>
+      </c>
+      <c r="B99" t="s">
+        <v>882</v>
+      </c>
+      <c r="C99" s="1">
+        <f t="shared" si="3"/>
+        <v>21004</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A100">
+        <v>21005</v>
+      </c>
+      <c r="B100" t="s">
+        <v>883</v>
+      </c>
+      <c r="C100" s="1">
+        <f t="shared" si="3"/>
+        <v>21005</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A101">
+        <v>21006</v>
+      </c>
+      <c r="B101" t="s">
+        <v>884</v>
+      </c>
+      <c r="C101" s="1">
+        <f t="shared" si="3"/>
+        <v>21006</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A102">
+        <v>21007</v>
+      </c>
+      <c r="B102" t="s">
+        <v>885</v>
+      </c>
+      <c r="C102" s="1">
+        <f t="shared" si="3"/>
+        <v>21007</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A103">
+        <v>21008</v>
+      </c>
+      <c r="B103" t="s">
+        <v>886</v>
+      </c>
+      <c r="C103" s="1">
+        <f t="shared" si="3"/>
+        <v>21008</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A104">
+        <v>21009</v>
+      </c>
+      <c r="B104" t="s">
+        <v>887</v>
+      </c>
+      <c r="C104" s="1">
+        <f t="shared" si="3"/>
+        <v>21009</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A105">
+        <v>21010</v>
+      </c>
+      <c r="B105" t="s">
+        <v>888</v>
+      </c>
+      <c r="C105" s="1">
+        <f t="shared" si="3"/>
+        <v>21010</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A106">
+        <v>21011</v>
+      </c>
+      <c r="B106" t="s">
+        <v>889</v>
+      </c>
+      <c r="C106" s="1">
+        <f t="shared" si="3"/>
+        <v>21011</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A107">
+        <v>21012</v>
+      </c>
+      <c r="B107" t="s">
+        <v>890</v>
+      </c>
+      <c r="C107" s="1">
+        <f t="shared" si="3"/>
+        <v>21012</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A108">
+        <v>21013</v>
+      </c>
+      <c r="B108" t="s">
+        <v>891</v>
+      </c>
+      <c r="C108" s="1">
+        <f t="shared" si="3"/>
+        <v>21013</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A109">
+        <v>21014</v>
+      </c>
+      <c r="B109" t="s">
+        <v>892</v>
+      </c>
+      <c r="C109" s="1">
+        <f t="shared" si="3"/>
+        <v>21014</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A110">
+        <v>21015</v>
+      </c>
+      <c r="B110" t="s">
+        <v>893</v>
+      </c>
+      <c r="C110" s="1">
+        <f t="shared" si="3"/>
+        <v>21015</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A111">
+        <v>21016</v>
+      </c>
+      <c r="B111" t="s">
+        <v>894</v>
+      </c>
+      <c r="C111" s="1">
+        <f t="shared" si="3"/>
+        <v>21016</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A112">
+        <v>21017</v>
+      </c>
+      <c r="B112" t="s">
+        <v>895</v>
+      </c>
+      <c r="C112" s="1">
+        <f t="shared" si="3"/>
+        <v>21017</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A113">
+        <v>21018</v>
+      </c>
+      <c r="B113" t="s">
+        <v>896</v>
+      </c>
+      <c r="C113" s="1">
+        <f t="shared" si="3"/>
+        <v>21018</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A114">
+        <v>21019</v>
+      </c>
+      <c r="B114" t="s">
+        <v>897</v>
+      </c>
+      <c r="C114" s="1">
+        <f t="shared" si="3"/>
+        <v>21019</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A115">
+        <v>21020</v>
+      </c>
+      <c r="B115" t="s">
+        <v>898</v>
+      </c>
+      <c r="C115" s="1">
+        <f t="shared" si="3"/>
+        <v>21020</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A116">
+        <v>21021</v>
+      </c>
+      <c r="B116" t="s">
+        <v>899</v>
+      </c>
+      <c r="C116" s="1">
+        <f t="shared" si="3"/>
+        <v>21021</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A117">
+        <v>21022</v>
+      </c>
+      <c r="B117" t="s">
+        <v>900</v>
+      </c>
+      <c r="C117" s="1">
+        <f t="shared" si="3"/>
+        <v>21022</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A118">
+        <v>21023</v>
+      </c>
+      <c r="B118" t="s">
+        <v>901</v>
+      </c>
+      <c r="C118" s="1">
+        <f t="shared" si="3"/>
+        <v>21023</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A119">
+        <v>21024</v>
+      </c>
+      <c r="B119" t="s">
+        <v>902</v>
+      </c>
+      <c r="C119" s="1">
+        <f t="shared" si="3"/>
+        <v>21024</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A120">
+        <v>22001</v>
+      </c>
+      <c r="B120" t="s">
+        <v>903</v>
+      </c>
+      <c r="C120" s="1">
+        <f t="shared" si="3"/>
+        <v>22001</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A121">
+        <v>22002</v>
+      </c>
+      <c r="B121" t="s">
+        <v>904</v>
+      </c>
+      <c r="C121" s="1">
+        <f t="shared" si="3"/>
+        <v>22002</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A122">
+        <v>22003</v>
+      </c>
+      <c r="B122" t="s">
+        <v>905</v>
+      </c>
+      <c r="C122" s="1">
+        <f t="shared" si="3"/>
+        <v>22003</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A123">
+        <v>22004</v>
+      </c>
+      <c r="B123" t="s">
+        <v>906</v>
+      </c>
+      <c r="C123" s="1">
+        <f t="shared" si="3"/>
+        <v>22004</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A124">
+        <v>22005</v>
+      </c>
+      <c r="B124" t="s">
+        <v>907</v>
+      </c>
+      <c r="C124" s="1">
+        <f t="shared" si="3"/>
+        <v>22005</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A125">
+        <v>22006</v>
+      </c>
+      <c r="B125" t="s">
+        <v>908</v>
+      </c>
+      <c r="C125" s="1">
+        <f t="shared" si="3"/>
+        <v>22006</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A126">
+        <v>22007</v>
+      </c>
+      <c r="B126" t="s">
+        <v>909</v>
+      </c>
+      <c r="C126" s="1">
+        <f t="shared" si="3"/>
+        <v>22007</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A127">
+        <v>22008</v>
+      </c>
+      <c r="B127" t="s">
+        <v>910</v>
+      </c>
+      <c r="C127" s="1">
+        <f t="shared" si="3"/>
+        <v>22008</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A128">
+        <v>22009</v>
+      </c>
+      <c r="B128" t="s">
+        <v>911</v>
+      </c>
+      <c r="C128" s="1">
+        <f t="shared" si="3"/>
+        <v>22009</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A129">
+        <v>22010</v>
+      </c>
+      <c r="B129" t="s">
+        <v>912</v>
+      </c>
+      <c r="C129" s="1">
+        <f t="shared" si="3"/>
+        <v>22010</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A130">
+        <v>22011</v>
+      </c>
+      <c r="B130" t="s">
+        <v>913</v>
+      </c>
+      <c r="C130" s="1">
+        <f t="shared" si="3"/>
+        <v>22011</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A131">
+        <v>22012</v>
+      </c>
+      <c r="B131" t="s">
+        <v>914</v>
+      </c>
+      <c r="C131" s="1">
+        <f t="shared" si="3"/>
+        <v>22012</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A132">
+        <v>22013</v>
+      </c>
+      <c r="B132" t="s">
+        <v>915</v>
+      </c>
+      <c r="C132" s="1">
+        <f t="shared" si="3"/>
+        <v>22013</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A133">
+        <v>22014</v>
+      </c>
+      <c r="B133" t="s">
+        <v>916</v>
+      </c>
+      <c r="C133" s="1">
+        <f t="shared" si="3"/>
+        <v>22014</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A134">
+        <v>22015</v>
+      </c>
+      <c r="B134" t="s">
+        <v>917</v>
+      </c>
+      <c r="C134" s="1">
+        <f t="shared" si="3"/>
+        <v>22015</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A135">
+        <v>22016</v>
+      </c>
+      <c r="B135" t="s">
+        <v>918</v>
+      </c>
+      <c r="C135" s="1">
+        <f t="shared" si="3"/>
+        <v>22016</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A136">
+        <v>22017</v>
+      </c>
+      <c r="B136" t="s">
+        <v>919</v>
+      </c>
+      <c r="C136" s="1">
+        <f t="shared" si="3"/>
+        <v>22017</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A137">
+        <v>22018</v>
+      </c>
+      <c r="B137" t="s">
+        <v>920</v>
+      </c>
+      <c r="C137" s="1">
+        <f t="shared" si="3"/>
+        <v>22018</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A138">
+        <v>22019</v>
+      </c>
+      <c r="B138" t="s">
+        <v>921</v>
+      </c>
+      <c r="C138" s="1">
+        <f t="shared" si="3"/>
+        <v>22019</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A139">
+        <v>22020</v>
+      </c>
+      <c r="B139" t="s">
+        <v>922</v>
+      </c>
+      <c r="C139" s="1">
+        <f t="shared" si="3"/>
+        <v>22020</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A140">
+        <v>22021</v>
+      </c>
+      <c r="B140" t="s">
+        <v>923</v>
+      </c>
+      <c r="C140" s="1">
+        <f t="shared" si="3"/>
+        <v>22021</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A141">
+        <v>22022</v>
+      </c>
+      <c r="B141" t="s">
+        <v>924</v>
+      </c>
+      <c r="C141" s="1">
+        <f t="shared" si="3"/>
+        <v>22022</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A142">
+        <v>22023</v>
+      </c>
+      <c r="B142" t="s">
+        <v>925</v>
+      </c>
+      <c r="C142" s="1">
+        <f t="shared" si="3"/>
+        <v>22023</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A143">
+        <v>22024</v>
+      </c>
+      <c r="B143" t="s">
+        <v>926</v>
+      </c>
+      <c r="C143" s="1">
+        <f t="shared" si="3"/>
+        <v>22024</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A144">
+        <v>22025</v>
+      </c>
+      <c r="B144" t="s">
+        <v>927</v>
+      </c>
+      <c r="C144" s="1">
+        <f t="shared" si="3"/>
+        <v>22025</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A145">
+        <v>22026</v>
+      </c>
+      <c r="B145" t="s">
+        <v>928</v>
+      </c>
+      <c r="C145" s="1">
+        <f t="shared" si="3"/>
+        <v>22026</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A146">
+        <v>22027</v>
+      </c>
+      <c r="B146" t="s">
+        <v>929</v>
+      </c>
+      <c r="C146" s="1">
+        <f t="shared" ref="C146" si="4">A146</f>
+        <v>22027</v>
       </c>
     </row>
   </sheetData>

--- a/辅助总表/奖励辅助表.xlsx
+++ b/辅助总表/奖励辅助表.xlsx
@@ -17,7 +17,7 @@
     <sheet name="奖励辅助" sheetId="3" r:id="rId3"/>
     <sheet name="物品" sheetId="2" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150000" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1592" uniqueCount="932">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1591" uniqueCount="932">
   <si>
     <t>ID</t>
   </si>
@@ -2934,10 +2934,10 @@
     <t>匕首高武器卡</t>
   </si>
   <si>
-    <t>[{"g":20,"i":[{"t":"i","i":21001,"c":1,"tr":0}]},{"g":20,"i":[{"t":"i","i":21002,"c":2,"tr":0}]},{"g":20,"i":[{"t":"i","i":21003,"c":3,"tr":0}]},{"g":20,"i":[{"t":"i","i":21004,"c":4,"tr":0}]},{"g":20,"i":[{"t":"i","i":21005,"c":5,"tr":0}]},{"g":20,"i":[{"t":"i","i":21006,"c":6,"tr":0}]},{"g":20,"i":[{"t":"i","i":21007,"c":7,"tr":0}]},{"g":20,"i":[{"t":"i","i":21008,"c":8,"tr":0}]},{"g":20,"i":[{"t":"i","i":21009,"c":9,"tr":0}]},{"g":20,"i":[{"t":"i","i":21010,"c":10,"tr":0}]},{"g":100,"i":[{"t":"i","i":22001,"c":11,"tr":0}]},{"g":100,"i":[{"t":"i","i":22004,"c":12,"tr":0}]},{"g":100,"i":[{"t":"i","i":22007,"c":13,"tr":0}]},{"g":100,"i":[{"t":"i","i":22010,"c":14,"tr":0}]},{"g":100,"i":[{"t":"i","i":22013,"c":15,"tr":0}]},{"g":100,"i":[{"t":"i","i":22016,"c":16,"tr":0}]},{"g":100,"i":[{"t":"i","i":22019,"c":17,"tr":0}]},{"g":100,"i":[{"t":"i","i":22022,"c":18,"tr":0}]},{"g":100,"i":[{"t":"i","i":22025,"c":19,"tr":0}]},{"g":5,"i":[{"t":"i","i":21011,"c":20,"tr":0}]},{"g":5,"i":[{"t":"i","i":21012,"c":21,"tr":0}]},{"g":5,"i":[{"t":"i","i":21013,"c":22,"tr":0}]},{"g":5,"i":[{"t":"i","i":21014,"c":23,"tr":0}]},{"g":5,"i":[{"t":"i","i":21015,"c":24,"tr":0}]},{"g":5,"i":[{"t":"i","i":21016,"c":25,"tr":0}]},{"g":5,"i":[{"t":"i","i":21017,"c":26,"tr":0}]},{"g":10,"i":[{"t":"i","i":22002,"c":27,"tr":0}]},{"g":10,"i":[{"t":"i","i":22005,"c":28,"tr":0}]},{"g":10,"i":[{"t":"i","i":22008,"c":29,"tr":0}]},{"g":10,"i":[{"t":"i","i":22011,"c":30,"tr":0}]},{"g":10,"i":[{"t":"i","i":22014,"c":31,"tr":0}]},{"g":10,"i":[{"t":"i","i":22017,"c":32,"tr":0}]},{"g":10,"i":[{"t":"i","i":22020,"c":33,"tr":0}]},{"g":10,"i":[{"t":"i","i":22023,"c":34,"tr":0}]},{"g":10,"i":[{"t":"i","i":22026,"c":35,"tr":0}]}]</t>
-  </si>
-  <si>
-    <t>[{"g":100,"i":[{"t":"i","i":21018,"c":36,"tr":0}]},{"g":100,"i":[{"t":"i","i":21019,"c":37,"tr":0}]},{"g":100,"i":[{"t":"i","i":21020,"c":38,"tr":0}]},{"g":100,"i":[{"t":"i","i":21021,"c":39,"tr":0}]},{"g":100,"i":[{"t":"i","i":21022,"c":40,"tr":0}]},{"g":100,"i":[{"t":"i","i":21023,"c":41,"tr":0}]},{"g":100,"i":[{"t":"i","i":21024,"c":42,"tr":0}]},{"g":100,"i":[{"t":"i","i":22003,"c":43,"tr":0}]},{"g":100,"i":[{"t":"i","i":22006,"c":44,"tr":0}]},{"g":100,"i":[{"t":"i","i":22009,"c":45,"tr":0}]},{"g":100,"i":[{"t":"i","i":22012,"c":46,"tr":0}]},{"g":100,"i":[{"t":"i","i":22015,"c":47,"tr":0}]},{"g":100,"i":[{"t":"i","i":22018,"c":48,"tr":0}]},{"g":100,"i":[{"t":"i","i":22021,"c":49,"tr":0}]},{"g":100,"i":[{"t":"i","i":22024,"c":50,"tr":0}]},{"g":100,"i":[{"t":"i","i":22027,"c":51,"tr":0}]}]</t>
+    <t>[{"g":20,"i":[{"t":"i","i":21001,"c":1,"tr":0}]},{"g":20,"i":[{"t":"i","i":21002,"c":1,"tr":0}]},{"g":20,"i":[{"t":"i","i":21003,"c":1,"tr":0}]},{"g":20,"i":[{"t":"i","i":21004,"c":1,"tr":0}]},{"g":20,"i":[{"t":"i","i":21005,"c":1,"tr":0}]},{"g":20,"i":[{"t":"i","i":21006,"c":1,"tr":0}]},{"g":20,"i":[{"t":"i","i":21007,"c":1,"tr":0}]},{"g":20,"i":[{"t":"i","i":21008,"c":1,"tr":0}]},{"g":20,"i":[{"t":"i","i":21009,"c":1,"tr":0}]},{"g":20,"i":[{"t":"i","i":21010,"c":1,"tr":0}]},{"g":100,"i":[{"t":"i","i":22001,"c":1,"tr":0}]},{"g":100,"i":[{"t":"i","i":22004,"c":1,"tr":0}]},{"g":100,"i":[{"t":"i","i":22007,"c":1,"tr":0}]},{"g":100,"i":[{"t":"i","i":22010,"c":1,"tr":0}]},{"g":100,"i":[{"t":"i","i":22013,"c":1,"tr":0}]},{"g":100,"i":[{"t":"i","i":22016,"c":1,"tr":0}]},{"g":100,"i":[{"t":"i","i":22019,"c":1,"tr":0}]},{"g":100,"i":[{"t":"i","i":22022,"c":1,"tr":0}]},{"g":100,"i":[{"t":"i","i":22025,"c":1,"tr":0}]},{"g":5,"i":[{"t":"i","i":21011,"c":1,"tr":0}]},{"g":5,"i":[{"t":"i","i":21012,"c":1,"tr":0}]},{"g":5,"i":[{"t":"i","i":21013,"c":1,"tr":0}]},{"g":5,"i":[{"t":"i","i":21014,"c":1,"tr":0}]},{"g":5,"i":[{"t":"i","i":21015,"c":1,"tr":0}]},{"g":5,"i":[{"t":"i","i":21016,"c":1,"tr":0}]},{"g":5,"i":[{"t":"i","i":21017,"c":1,"tr":0}]},{"g":10,"i":[{"t":"i","i":22002,"c":1,"tr":0}]},{"g":10,"i":[{"t":"i","i":22005,"c":1,"tr":0}]},{"g":10,"i":[{"t":"i","i":22008,"c":1,"tr":0}]},{"g":10,"i":[{"t":"i","i":22011,"c":1,"tr":0}]},{"g":10,"i":[{"t":"i","i":22014,"c":1,"tr":0}]},{"g":10,"i":[{"t":"i","i":22017,"c":1,"tr":0}]},{"g":10,"i":[{"t":"i","i":22020,"c":1,"tr":0}]},{"g":10,"i":[{"t":"i","i":22023,"c":1,"tr":0}]},{"g":10,"i":[{"t":"i","i":22026,"c":1,"tr":0}]}]</t>
+  </si>
+  <si>
+    <t>[{"g":100,"i":[{"t":"i","i":21018,"c":1,"tr":0}]},{"g":100,"i":[{"t":"i","i":21019,"c":1,"tr":0}]},{"g":100,"i":[{"t":"i","i":21020,"c":1,"tr":0}]},{"g":100,"i":[{"t":"i","i":21021,"c":1,"tr":0}]},{"g":100,"i":[{"t":"i","i":21022,"c":1,"tr":0}]},{"g":100,"i":[{"t":"i","i":21023,"c":1,"tr":0}]},{"g":100,"i":[{"t":"i","i":21024,"c":1,"tr":0}]},{"g":100,"i":[{"t":"i","i":22003,"c":1,"tr":0}]},{"g":100,"i":[{"t":"i","i":22006,"c":1,"tr":0}]},{"g":100,"i":[{"t":"i","i":22009,"c":1,"tr":0}]},{"g":100,"i":[{"t":"i","i":22012,"c":1,"tr":0}]},{"g":100,"i":[{"t":"i","i":22015,"c":1,"tr":0}]},{"g":100,"i":[{"t":"i","i":22018,"c":1,"tr":0}]},{"g":100,"i":[{"t":"i","i":22021,"c":1,"tr":0}]},{"g":100,"i":[{"t":"i","i":22024,"c":1,"tr":0}]},{"g":100,"i":[{"t":"i","i":22027,"c":1,"tr":0}]}]</t>
   </si>
 </sst>
 </file>
@@ -19493,8 +19493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BD22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -19725,7 +19725,7 @@
       </c>
       <c r="D4" s="3" t="str">
         <f>"["&amp;G4&amp;H4&amp;I4&amp;J4&amp;K4&amp;L4&amp;M4&amp;N4&amp;O4&amp;P4&amp;Q4&amp;R4&amp;S4&amp;T4&amp;U4&amp;V4&amp;W4&amp;X4&amp;Y4&amp;Z4&amp;AA4&amp;AB4&amp;AC4&amp;AD4&amp;AE4&amp;AF4&amp;AG4&amp;AH4&amp;AI4&amp;AJ4&amp;AK4&amp;AL4&amp;AM4&amp;AN4&amp;AO4&amp;AP4&amp;AQ4&amp;AR4&amp;AS4&amp;AT4&amp;AU4&amp;AV4&amp;AW4&amp;AX4&amp;AY4&amp;AZ4&amp;"]"</f>
-        <v>[{"g":20,"i":[{"t":"i","i":21001,"c":1,"tr":0}]},{"g":20,"i":[{"t":"i","i":21002,"c":2,"tr":0}]},{"g":20,"i":[{"t":"i","i":21003,"c":3,"tr":0}]},{"g":20,"i":[{"t":"i","i":21004,"c":4,"tr":0}]},{"g":20,"i":[{"t":"i","i":21005,"c":5,"tr":0}]},{"g":20,"i":[{"t":"i","i":21006,"c":6,"tr":0}]},{"g":20,"i":[{"t":"i","i":21007,"c":7,"tr":0}]},{"g":20,"i":[{"t":"i","i":21008,"c":8,"tr":0}]},{"g":20,"i":[{"t":"i","i":21009,"c":9,"tr":0}]},{"g":20,"i":[{"t":"i","i":21010,"c":10,"tr":0}]},{"g":100,"i":[{"t":"i","i":22001,"c":11,"tr":0}]},{"g":100,"i":[{"t":"i","i":22004,"c":12,"tr":0}]},{"g":100,"i":[{"t":"i","i":22007,"c":13,"tr":0}]},{"g":100,"i":[{"t":"i","i":22010,"c":14,"tr":0}]},{"g":100,"i":[{"t":"i","i":22013,"c":15,"tr":0}]},{"g":100,"i":[{"t":"i","i":22016,"c":16,"tr":0}]},{"g":100,"i":[{"t":"i","i":22019,"c":17,"tr":0}]},{"g":100,"i":[{"t":"i","i":22022,"c":18,"tr":0}]},{"g":100,"i":[{"t":"i","i":22025,"c":19,"tr":0}]},{"g":5,"i":[{"t":"i","i":21011,"c":20,"tr":0}]},{"g":5,"i":[{"t":"i","i":21012,"c":21,"tr":0}]},{"g":5,"i":[{"t":"i","i":21013,"c":22,"tr":0}]},{"g":5,"i":[{"t":"i","i":21014,"c":23,"tr":0}]},{"g":5,"i":[{"t":"i","i":21015,"c":24,"tr":0}]},{"g":5,"i":[{"t":"i","i":21016,"c":25,"tr":0}]},{"g":5,"i":[{"t":"i","i":21017,"c":26,"tr":0}]},{"g":10,"i":[{"t":"i","i":22002,"c":27,"tr":0}]},{"g":10,"i":[{"t":"i","i":22005,"c":28,"tr":0}]},{"g":10,"i":[{"t":"i","i":22008,"c":29,"tr":0}]},{"g":10,"i":[{"t":"i","i":22011,"c":30,"tr":0}]},{"g":10,"i":[{"t":"i","i":22014,"c":31,"tr":0}]},{"g":10,"i":[{"t":"i","i":22017,"c":32,"tr":0}]},{"g":10,"i":[{"t":"i","i":22020,"c":33,"tr":0}]},{"g":10,"i":[{"t":"i","i":22023,"c":34,"tr":0}]},{"g":10,"i":[{"t":"i","i":22026,"c":35,"tr":0}]}]</v>
+        <v>[{"g":20,"i":[{"t":"i","i":21001,"c":1,"tr":0}]},{"g":20,"i":[{"t":"i","i":21002,"c":1,"tr":0}]},{"g":20,"i":[{"t":"i","i":21003,"c":1,"tr":0}]},{"g":20,"i":[{"t":"i","i":21004,"c":1,"tr":0}]},{"g":20,"i":[{"t":"i","i":21005,"c":1,"tr":0}]},{"g":20,"i":[{"t":"i","i":21006,"c":1,"tr":0}]},{"g":20,"i":[{"t":"i","i":21007,"c":1,"tr":0}]},{"g":20,"i":[{"t":"i","i":21008,"c":1,"tr":0}]},{"g":20,"i":[{"t":"i","i":21009,"c":1,"tr":0}]},{"g":20,"i":[{"t":"i","i":21010,"c":1,"tr":0}]},{"g":100,"i":[{"t":"i","i":22001,"c":1,"tr":0}]},{"g":100,"i":[{"t":"i","i":22004,"c":1,"tr":0}]},{"g":100,"i":[{"t":"i","i":22007,"c":1,"tr":0}]},{"g":100,"i":[{"t":"i","i":22010,"c":1,"tr":0}]},{"g":100,"i":[{"t":"i","i":22013,"c":1,"tr":0}]},{"g":100,"i":[{"t":"i","i":22016,"c":1,"tr":0}]},{"g":100,"i":[{"t":"i","i":22019,"c":1,"tr":0}]},{"g":100,"i":[{"t":"i","i":22022,"c":1,"tr":0}]},{"g":100,"i":[{"t":"i","i":22025,"c":1,"tr":0}]},{"g":5,"i":[{"t":"i","i":21011,"c":1,"tr":0}]},{"g":5,"i":[{"t":"i","i":21012,"c":1,"tr":0}]},{"g":5,"i":[{"t":"i","i":21013,"c":1,"tr":0}]},{"g":5,"i":[{"t":"i","i":21014,"c":1,"tr":0}]},{"g":5,"i":[{"t":"i","i":21015,"c":1,"tr":0}]},{"g":5,"i":[{"t":"i","i":21016,"c":1,"tr":0}]},{"g":5,"i":[{"t":"i","i":21017,"c":1,"tr":0}]},{"g":10,"i":[{"t":"i","i":22002,"c":1,"tr":0}]},{"g":10,"i":[{"t":"i","i":22005,"c":1,"tr":0}]},{"g":10,"i":[{"t":"i","i":22008,"c":1,"tr":0}]},{"g":10,"i":[{"t":"i","i":22011,"c":1,"tr":0}]},{"g":10,"i":[{"t":"i","i":22014,"c":1,"tr":0}]},{"g":10,"i":[{"t":"i","i":22017,"c":1,"tr":0}]},{"g":10,"i":[{"t":"i","i":22020,"c":1,"tr":0}]},{"g":10,"i":[{"t":"i","i":22023,"c":1,"tr":0}]},{"g":10,"i":[{"t":"i","i":22026,"c":1,"tr":0}]}]</v>
       </c>
       <c r="E4" s="2">
         <v>0</v>
@@ -19739,139 +19739,139 @@
       </c>
       <c r="H4" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+H$3,奖励辅助!$A:$K,11,FALSE),"")</f>
-        <v>,{"g":20,"i":[{"t":"i","i":21002,"c":2,"tr":0}]}</v>
+        <v>,{"g":20,"i":[{"t":"i","i":21002,"c":1,"tr":0}]}</v>
       </c>
       <c r="I4" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+I$3,奖励辅助!$A:$K,11,FALSE),"")</f>
-        <v>,{"g":20,"i":[{"t":"i","i":21003,"c":3,"tr":0}]}</v>
+        <v>,{"g":20,"i":[{"t":"i","i":21003,"c":1,"tr":0}]}</v>
       </c>
       <c r="J4" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+J$3,奖励辅助!$A:$K,11,FALSE),"")</f>
-        <v>,{"g":20,"i":[{"t":"i","i":21004,"c":4,"tr":0}]}</v>
+        <v>,{"g":20,"i":[{"t":"i","i":21004,"c":1,"tr":0}]}</v>
       </c>
       <c r="K4" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+K$3,奖励辅助!$A:$K,11,FALSE),"")</f>
-        <v>,{"g":20,"i":[{"t":"i","i":21005,"c":5,"tr":0}]}</v>
+        <v>,{"g":20,"i":[{"t":"i","i":21005,"c":1,"tr":0}]}</v>
       </c>
       <c r="L4" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+L$3,奖励辅助!$A:$K,11,FALSE),"")</f>
-        <v>,{"g":20,"i":[{"t":"i","i":21006,"c":6,"tr":0}]}</v>
+        <v>,{"g":20,"i":[{"t":"i","i":21006,"c":1,"tr":0}]}</v>
       </c>
       <c r="M4" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+M$3,奖励辅助!$A:$K,11,FALSE),"")</f>
-        <v>,{"g":20,"i":[{"t":"i","i":21007,"c":7,"tr":0}]}</v>
+        <v>,{"g":20,"i":[{"t":"i","i":21007,"c":1,"tr":0}]}</v>
       </c>
       <c r="N4" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+N$3,奖励辅助!$A:$K,11,FALSE),"")</f>
-        <v>,{"g":20,"i":[{"t":"i","i":21008,"c":8,"tr":0}]}</v>
+        <v>,{"g":20,"i":[{"t":"i","i":21008,"c":1,"tr":0}]}</v>
       </c>
       <c r="O4" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+O$3,奖励辅助!$A:$K,11,FALSE),"")</f>
-        <v>,{"g":20,"i":[{"t":"i","i":21009,"c":9,"tr":0}]}</v>
+        <v>,{"g":20,"i":[{"t":"i","i":21009,"c":1,"tr":0}]}</v>
       </c>
       <c r="P4" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+P$3,奖励辅助!$A:$K,11,FALSE),"")</f>
-        <v>,{"g":20,"i":[{"t":"i","i":21010,"c":10,"tr":0}]}</v>
+        <v>,{"g":20,"i":[{"t":"i","i":21010,"c":1,"tr":0}]}</v>
       </c>
       <c r="Q4" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+Q$3,奖励辅助!$A:$K,11,FALSE),"")</f>
-        <v>,{"g":100,"i":[{"t":"i","i":22001,"c":11,"tr":0}]}</v>
+        <v>,{"g":100,"i":[{"t":"i","i":22001,"c":1,"tr":0}]}</v>
       </c>
       <c r="R4" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+R$3,奖励辅助!$A:$K,11,FALSE),"")</f>
-        <v>,{"g":100,"i":[{"t":"i","i":22004,"c":12,"tr":0}]}</v>
+        <v>,{"g":100,"i":[{"t":"i","i":22004,"c":1,"tr":0}]}</v>
       </c>
       <c r="S4" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+S$3,奖励辅助!$A:$K,11,FALSE),"")</f>
-        <v>,{"g":100,"i":[{"t":"i","i":22007,"c":13,"tr":0}]}</v>
+        <v>,{"g":100,"i":[{"t":"i","i":22007,"c":1,"tr":0}]}</v>
       </c>
       <c r="T4" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+T$3,奖励辅助!$A:$K,11,FALSE),"")</f>
-        <v>,{"g":100,"i":[{"t":"i","i":22010,"c":14,"tr":0}]}</v>
+        <v>,{"g":100,"i":[{"t":"i","i":22010,"c":1,"tr":0}]}</v>
       </c>
       <c r="U4" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+U$3,奖励辅助!$A:$K,11,FALSE),"")</f>
-        <v>,{"g":100,"i":[{"t":"i","i":22013,"c":15,"tr":0}]}</v>
+        <v>,{"g":100,"i":[{"t":"i","i":22013,"c":1,"tr":0}]}</v>
       </c>
       <c r="V4" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+V$3,奖励辅助!$A:$K,11,FALSE),"")</f>
-        <v>,{"g":100,"i":[{"t":"i","i":22016,"c":16,"tr":0}]}</v>
+        <v>,{"g":100,"i":[{"t":"i","i":22016,"c":1,"tr":0}]}</v>
       </c>
       <c r="W4" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+W$3,奖励辅助!$A:$K,11,FALSE),"")</f>
-        <v>,{"g":100,"i":[{"t":"i","i":22019,"c":17,"tr":0}]}</v>
+        <v>,{"g":100,"i":[{"t":"i","i":22019,"c":1,"tr":0}]}</v>
       </c>
       <c r="X4" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+X$3,奖励辅助!$A:$K,11,FALSE),"")</f>
-        <v>,{"g":100,"i":[{"t":"i","i":22022,"c":18,"tr":0}]}</v>
+        <v>,{"g":100,"i":[{"t":"i","i":22022,"c":1,"tr":0}]}</v>
       </c>
       <c r="Y4" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+Y$3,奖励辅助!$A:$K,11,FALSE),"")</f>
-        <v>,{"g":100,"i":[{"t":"i","i":22025,"c":19,"tr":0}]}</v>
+        <v>,{"g":100,"i":[{"t":"i","i":22025,"c":1,"tr":0}]}</v>
       </c>
       <c r="Z4" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+Z$3,奖励辅助!$A:$K,11,FALSE),"")</f>
-        <v>,{"g":5,"i":[{"t":"i","i":21011,"c":20,"tr":0}]}</v>
+        <v>,{"g":5,"i":[{"t":"i","i":21011,"c":1,"tr":0}]}</v>
       </c>
       <c r="AA4" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+AA$3,奖励辅助!$A:$K,11,FALSE),"")</f>
-        <v>,{"g":5,"i":[{"t":"i","i":21012,"c":21,"tr":0}]}</v>
+        <v>,{"g":5,"i":[{"t":"i","i":21012,"c":1,"tr":0}]}</v>
       </c>
       <c r="AB4" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+AB$3,奖励辅助!$A:$K,11,FALSE),"")</f>
-        <v>,{"g":5,"i":[{"t":"i","i":21013,"c":22,"tr":0}]}</v>
+        <v>,{"g":5,"i":[{"t":"i","i":21013,"c":1,"tr":0}]}</v>
       </c>
       <c r="AC4" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+AC$3,奖励辅助!$A:$K,11,FALSE),"")</f>
-        <v>,{"g":5,"i":[{"t":"i","i":21014,"c":23,"tr":0}]}</v>
+        <v>,{"g":5,"i":[{"t":"i","i":21014,"c":1,"tr":0}]}</v>
       </c>
       <c r="AD4" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+AD$3,奖励辅助!$A:$K,11,FALSE),"")</f>
-        <v>,{"g":5,"i":[{"t":"i","i":21015,"c":24,"tr":0}]}</v>
+        <v>,{"g":5,"i":[{"t":"i","i":21015,"c":1,"tr":0}]}</v>
       </c>
       <c r="AE4" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+AE$3,奖励辅助!$A:$K,11,FALSE),"")</f>
-        <v>,{"g":5,"i":[{"t":"i","i":21016,"c":25,"tr":0}]}</v>
+        <v>,{"g":5,"i":[{"t":"i","i":21016,"c":1,"tr":0}]}</v>
       </c>
       <c r="AF4" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+AF$3,奖励辅助!$A:$K,11,FALSE),"")</f>
-        <v>,{"g":5,"i":[{"t":"i","i":21017,"c":26,"tr":0}]}</v>
+        <v>,{"g":5,"i":[{"t":"i","i":21017,"c":1,"tr":0}]}</v>
       </c>
       <c r="AG4" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+AG$3,奖励辅助!$A:$K,11,FALSE),"")</f>
-        <v>,{"g":10,"i":[{"t":"i","i":22002,"c":27,"tr":0}]}</v>
+        <v>,{"g":10,"i":[{"t":"i","i":22002,"c":1,"tr":0}]}</v>
       </c>
       <c r="AH4" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+AH$3,奖励辅助!$A:$K,11,FALSE),"")</f>
-        <v>,{"g":10,"i":[{"t":"i","i":22005,"c":28,"tr":0}]}</v>
+        <v>,{"g":10,"i":[{"t":"i","i":22005,"c":1,"tr":0}]}</v>
       </c>
       <c r="AI4" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+AI$3,奖励辅助!$A:$K,11,FALSE),"")</f>
-        <v>,{"g":10,"i":[{"t":"i","i":22008,"c":29,"tr":0}]}</v>
+        <v>,{"g":10,"i":[{"t":"i","i":22008,"c":1,"tr":0}]}</v>
       </c>
       <c r="AJ4" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+AJ$3,奖励辅助!$A:$K,11,FALSE),"")</f>
-        <v>,{"g":10,"i":[{"t":"i","i":22011,"c":30,"tr":0}]}</v>
+        <v>,{"g":10,"i":[{"t":"i","i":22011,"c":1,"tr":0}]}</v>
       </c>
       <c r="AK4" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+AK$3,奖励辅助!$A:$K,11,FALSE),"")</f>
-        <v>,{"g":10,"i":[{"t":"i","i":22014,"c":31,"tr":0}]}</v>
+        <v>,{"g":10,"i":[{"t":"i","i":22014,"c":1,"tr":0}]}</v>
       </c>
       <c r="AL4" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+AL$3,奖励辅助!$A:$K,11,FALSE),"")</f>
-        <v>,{"g":10,"i":[{"t":"i","i":22017,"c":32,"tr":0}]}</v>
+        <v>,{"g":10,"i":[{"t":"i","i":22017,"c":1,"tr":0}]}</v>
       </c>
       <c r="AM4" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+AM$3,奖励辅助!$A:$K,11,FALSE),"")</f>
-        <v>,{"g":10,"i":[{"t":"i","i":22020,"c":33,"tr":0}]}</v>
+        <v>,{"g":10,"i":[{"t":"i","i":22020,"c":1,"tr":0}]}</v>
       </c>
       <c r="AN4" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+AN$3,奖励辅助!$A:$K,11,FALSE),"")</f>
-        <v>,{"g":10,"i":[{"t":"i","i":22023,"c":34,"tr":0}]}</v>
+        <v>,{"g":10,"i":[{"t":"i","i":22023,"c":1,"tr":0}]}</v>
       </c>
       <c r="AO4" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+AO$3,奖励辅助!$A:$K,11,FALSE),"")</f>
-        <v>,{"g":10,"i":[{"t":"i","i":22026,"c":35,"tr":0}]}</v>
+        <v>,{"g":10,"i":[{"t":"i","i":22026,"c":1,"tr":0}]}</v>
       </c>
       <c r="AP4" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($A4*1000+AP$3,奖励辅助!$A:$K,11,FALSE),"")</f>
@@ -19946,7 +19946,7 @@
       </c>
       <c r="D5" s="3" t="str">
         <f>"["&amp;G5&amp;H5&amp;I5&amp;J5&amp;K5&amp;L5&amp;M5&amp;N5&amp;O5&amp;P5&amp;Q5&amp;R5&amp;S5&amp;T5&amp;U5&amp;V5&amp;W5&amp;X5&amp;Y5&amp;Z5&amp;AA5&amp;AB5&amp;AC5&amp;AD5&amp;AE5&amp;AF5&amp;AG5&amp;AH5&amp;AI5&amp;AJ5&amp;AK5&amp;AL5&amp;AM5&amp;AN5&amp;AO5&amp;AP5&amp;AQ5&amp;AR5&amp;AS5&amp;AT5&amp;AU5&amp;AV5&amp;AW5&amp;AX5&amp;AY5&amp;AZ5&amp;"]"</f>
-        <v>[{"g":100,"i":[{"t":"i","i":21018,"c":36,"tr":0}]},{"g":100,"i":[{"t":"i","i":21019,"c":37,"tr":0}]},{"g":100,"i":[{"t":"i","i":21020,"c":38,"tr":0}]},{"g":100,"i":[{"t":"i","i":21021,"c":39,"tr":0}]},{"g":100,"i":[{"t":"i","i":21022,"c":40,"tr":0}]},{"g":100,"i":[{"t":"i","i":21023,"c":41,"tr":0}]},{"g":100,"i":[{"t":"i","i":21024,"c":42,"tr":0}]},{"g":100,"i":[{"t":"i","i":22003,"c":43,"tr":0}]},{"g":100,"i":[{"t":"i","i":22006,"c":44,"tr":0}]},{"g":100,"i":[{"t":"i","i":22009,"c":45,"tr":0}]},{"g":100,"i":[{"t":"i","i":22012,"c":46,"tr":0}]},{"g":100,"i":[{"t":"i","i":22015,"c":47,"tr":0}]},{"g":100,"i":[{"t":"i","i":22018,"c":48,"tr":0}]},{"g":100,"i":[{"t":"i","i":22021,"c":49,"tr":0}]},{"g":100,"i":[{"t":"i","i":22024,"c":50,"tr":0}]},{"g":100,"i":[{"t":"i","i":22027,"c":51,"tr":0}]}]</v>
+        <v>[{"g":100,"i":[{"t":"i","i":21018,"c":1,"tr":0}]},{"g":100,"i":[{"t":"i","i":21019,"c":1,"tr":0}]},{"g":100,"i":[{"t":"i","i":21020,"c":1,"tr":0}]},{"g":100,"i":[{"t":"i","i":21021,"c":1,"tr":0}]},{"g":100,"i":[{"t":"i","i":21022,"c":1,"tr":0}]},{"g":100,"i":[{"t":"i","i":21023,"c":1,"tr":0}]},{"g":100,"i":[{"t":"i","i":21024,"c":1,"tr":0}]},{"g":100,"i":[{"t":"i","i":22003,"c":1,"tr":0}]},{"g":100,"i":[{"t":"i","i":22006,"c":1,"tr":0}]},{"g":100,"i":[{"t":"i","i":22009,"c":1,"tr":0}]},{"g":100,"i":[{"t":"i","i":22012,"c":1,"tr":0}]},{"g":100,"i":[{"t":"i","i":22015,"c":1,"tr":0}]},{"g":100,"i":[{"t":"i","i":22018,"c":1,"tr":0}]},{"g":100,"i":[{"t":"i","i":22021,"c":1,"tr":0}]},{"g":100,"i":[{"t":"i","i":22024,"c":1,"tr":0}]},{"g":100,"i":[{"t":"i","i":22027,"c":1,"tr":0}]}]</v>
       </c>
       <c r="E5" s="2">
         <v>0</v>
@@ -19956,67 +19956,67 @@
       </c>
       <c r="G5" t="str">
         <f>_xlfn.IFNA(VLOOKUP($A5*1000+G$3,奖励辅助!$A:$K,11,FALSE),"")</f>
-        <v>{"g":100,"i":[{"t":"i","i":21018,"c":36,"tr":0}]}</v>
+        <v>{"g":100,"i":[{"t":"i","i":21018,"c":1,"tr":0}]}</v>
       </c>
       <c r="H5" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($A5*1000+H$3,奖励辅助!$A:$K,11,FALSE),"")</f>
-        <v>,{"g":100,"i":[{"t":"i","i":21019,"c":37,"tr":0}]}</v>
+        <v>,{"g":100,"i":[{"t":"i","i":21019,"c":1,"tr":0}]}</v>
       </c>
       <c r="I5" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($A5*1000+I$3,奖励辅助!$A:$K,11,FALSE),"")</f>
-        <v>,{"g":100,"i":[{"t":"i","i":21020,"c":38,"tr":0}]}</v>
+        <v>,{"g":100,"i":[{"t":"i","i":21020,"c":1,"tr":0}]}</v>
       </c>
       <c r="J5" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($A5*1000+J$3,奖励辅助!$A:$K,11,FALSE),"")</f>
-        <v>,{"g":100,"i":[{"t":"i","i":21021,"c":39,"tr":0}]}</v>
+        <v>,{"g":100,"i":[{"t":"i","i":21021,"c":1,"tr":0}]}</v>
       </c>
       <c r="K5" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($A5*1000+K$3,奖励辅助!$A:$K,11,FALSE),"")</f>
-        <v>,{"g":100,"i":[{"t":"i","i":21022,"c":40,"tr":0}]}</v>
+        <v>,{"g":100,"i":[{"t":"i","i":21022,"c":1,"tr":0}]}</v>
       </c>
       <c r="L5" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($A5*1000+L$3,奖励辅助!$A:$K,11,FALSE),"")</f>
-        <v>,{"g":100,"i":[{"t":"i","i":21023,"c":41,"tr":0}]}</v>
+        <v>,{"g":100,"i":[{"t":"i","i":21023,"c":1,"tr":0}]}</v>
       </c>
       <c r="M5" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($A5*1000+M$3,奖励辅助!$A:$K,11,FALSE),"")</f>
-        <v>,{"g":100,"i":[{"t":"i","i":21024,"c":42,"tr":0}]}</v>
+        <v>,{"g":100,"i":[{"t":"i","i":21024,"c":1,"tr":0}]}</v>
       </c>
       <c r="N5" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($A5*1000+N$3,奖励辅助!$A:$K,11,FALSE),"")</f>
-        <v>,{"g":100,"i":[{"t":"i","i":22003,"c":43,"tr":0}]}</v>
+        <v>,{"g":100,"i":[{"t":"i","i":22003,"c":1,"tr":0}]}</v>
       </c>
       <c r="O5" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($A5*1000+O$3,奖励辅助!$A:$K,11,FALSE),"")</f>
-        <v>,{"g":100,"i":[{"t":"i","i":22006,"c":44,"tr":0}]}</v>
+        <v>,{"g":100,"i":[{"t":"i","i":22006,"c":1,"tr":0}]}</v>
       </c>
       <c r="P5" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($A5*1000+P$3,奖励辅助!$A:$K,11,FALSE),"")</f>
-        <v>,{"g":100,"i":[{"t":"i","i":22009,"c":45,"tr":0}]}</v>
+        <v>,{"g":100,"i":[{"t":"i","i":22009,"c":1,"tr":0}]}</v>
       </c>
       <c r="Q5" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($A5*1000+Q$3,奖励辅助!$A:$K,11,FALSE),"")</f>
-        <v>,{"g":100,"i":[{"t":"i","i":22012,"c":46,"tr":0}]}</v>
+        <v>,{"g":100,"i":[{"t":"i","i":22012,"c":1,"tr":0}]}</v>
       </c>
       <c r="R5" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($A5*1000+R$3,奖励辅助!$A:$K,11,FALSE),"")</f>
-        <v>,{"g":100,"i":[{"t":"i","i":22015,"c":47,"tr":0}]}</v>
+        <v>,{"g":100,"i":[{"t":"i","i":22015,"c":1,"tr":0}]}</v>
       </c>
       <c r="S5" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($A5*1000+S$3,奖励辅助!$A:$K,11,FALSE),"")</f>
-        <v>,{"g":100,"i":[{"t":"i","i":22018,"c":48,"tr":0}]}</v>
+        <v>,{"g":100,"i":[{"t":"i","i":22018,"c":1,"tr":0}]}</v>
       </c>
       <c r="T5" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($A5*1000+T$3,奖励辅助!$A:$K,11,FALSE),"")</f>
-        <v>,{"g":100,"i":[{"t":"i","i":22021,"c":49,"tr":0}]}</v>
+        <v>,{"g":100,"i":[{"t":"i","i":22021,"c":1,"tr":0}]}</v>
       </c>
       <c r="U5" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($A5*1000+U$3,奖励辅助!$A:$K,11,FALSE),"")</f>
-        <v>,{"g":100,"i":[{"t":"i","i":22024,"c":50,"tr":0}]}</v>
+        <v>,{"g":100,"i":[{"t":"i","i":22024,"c":1,"tr":0}]}</v>
       </c>
       <c r="V5" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($A5*1000+V$3,奖励辅助!$A:$K,11,FALSE),"")</f>
-        <v>,{"g":100,"i":[{"t":"i","i":22027,"c":51,"tr":0}]}</v>
+        <v>,{"g":100,"i":[{"t":"i","i":22027,"c":1,"tr":0}]}</v>
       </c>
       <c r="W5" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($A5*1000+W$3,奖励辅助!$A:$K,11,FALSE),"")</f>
@@ -20080,15 +20080,13 @@
         <v>930</v>
       </c>
     </row>
-    <row r="14" spans="1:56" x14ac:dyDescent="0.15">
-      <c r="D14" t="s">
+    <row r="10" spans="1:56" x14ac:dyDescent="0.15">
+      <c r="D10" t="s">
         <v>931</v>
       </c>
     </row>
     <row r="22" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D22" s="3" t="s">
-        <v>930</v>
-      </c>
+      <c r="D22" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -20100,8 +20098,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8:F58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -20250,7 +20248,7 @@
         <v>880</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G9" t="str">
         <f t="shared" ref="G9:G58" si="1">IF(D9=0,"",G$5&amp;D9&amp;G$6)</f>
@@ -20262,7 +20260,7 @@
       </c>
       <c r="I9" t="str">
         <f t="shared" ref="I9:I58" si="2">I$5&amp;F9&amp;I$6</f>
-        <v>,"c":2,"tr":0}</v>
+        <v>,"c":1,"tr":0}</v>
       </c>
       <c r="J9" t="str">
         <f t="shared" ref="J9:J58" si="3">IF(G9="","",J$6)</f>
@@ -20270,7 +20268,7 @@
       </c>
       <c r="K9" t="str">
         <f t="shared" ref="K9:K58" si="4">G9&amp;H9&amp;I9&amp;J9</f>
-        <v>{"g":20,"i":[{"t":"i","i":21002,"c":2,"tr":0}]}</v>
+        <v>{"g":20,"i":[{"t":"i","i":21002,"c":1,"tr":0}]}</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.15">
@@ -20291,7 +20289,7 @@
         <v>881</v>
       </c>
       <c r="F10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G10" t="str">
         <f t="shared" si="1"/>
@@ -20303,7 +20301,7 @@
       </c>
       <c r="I10" t="str">
         <f t="shared" si="2"/>
-        <v>,"c":3,"tr":0}</v>
+        <v>,"c":1,"tr":0}</v>
       </c>
       <c r="J10" t="str">
         <f t="shared" si="3"/>
@@ -20311,7 +20309,7 @@
       </c>
       <c r="K10" t="str">
         <f t="shared" si="4"/>
-        <v>{"g":20,"i":[{"t":"i","i":21003,"c":3,"tr":0}]}</v>
+        <v>{"g":20,"i":[{"t":"i","i":21003,"c":1,"tr":0}]}</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.15">
@@ -20332,7 +20330,7 @@
         <v>882</v>
       </c>
       <c r="F11">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G11" t="str">
         <f t="shared" si="1"/>
@@ -20344,7 +20342,7 @@
       </c>
       <c r="I11" t="str">
         <f t="shared" si="2"/>
-        <v>,"c":4,"tr":0}</v>
+        <v>,"c":1,"tr":0}</v>
       </c>
       <c r="J11" t="str">
         <f t="shared" si="3"/>
@@ -20352,7 +20350,7 @@
       </c>
       <c r="K11" t="str">
         <f t="shared" si="4"/>
-        <v>{"g":20,"i":[{"t":"i","i":21004,"c":4,"tr":0}]}</v>
+        <v>{"g":20,"i":[{"t":"i","i":21004,"c":1,"tr":0}]}</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.15">
@@ -20373,7 +20371,7 @@
         <v>883</v>
       </c>
       <c r="F12">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G12" t="str">
         <f t="shared" si="1"/>
@@ -20385,7 +20383,7 @@
       </c>
       <c r="I12" t="str">
         <f t="shared" si="2"/>
-        <v>,"c":5,"tr":0}</v>
+        <v>,"c":1,"tr":0}</v>
       </c>
       <c r="J12" t="str">
         <f t="shared" si="3"/>
@@ -20393,7 +20391,7 @@
       </c>
       <c r="K12" t="str">
         <f t="shared" si="4"/>
-        <v>{"g":20,"i":[{"t":"i","i":21005,"c":5,"tr":0}]}</v>
+        <v>{"g":20,"i":[{"t":"i","i":21005,"c":1,"tr":0}]}</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.15">
@@ -20414,7 +20412,7 @@
         <v>884</v>
       </c>
       <c r="F13">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G13" t="str">
         <f t="shared" si="1"/>
@@ -20426,7 +20424,7 @@
       </c>
       <c r="I13" t="str">
         <f t="shared" si="2"/>
-        <v>,"c":6,"tr":0}</v>
+        <v>,"c":1,"tr":0}</v>
       </c>
       <c r="J13" t="str">
         <f t="shared" si="3"/>
@@ -20434,7 +20432,7 @@
       </c>
       <c r="K13" t="str">
         <f t="shared" si="4"/>
-        <v>{"g":20,"i":[{"t":"i","i":21006,"c":6,"tr":0}]}</v>
+        <v>{"g":20,"i":[{"t":"i","i":21006,"c":1,"tr":0}]}</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.15">
@@ -20455,7 +20453,7 @@
         <v>885</v>
       </c>
       <c r="F14">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G14" t="str">
         <f t="shared" si="1"/>
@@ -20467,7 +20465,7 @@
       </c>
       <c r="I14" t="str">
         <f t="shared" si="2"/>
-        <v>,"c":7,"tr":0}</v>
+        <v>,"c":1,"tr":0}</v>
       </c>
       <c r="J14" t="str">
         <f t="shared" si="3"/>
@@ -20475,7 +20473,7 @@
       </c>
       <c r="K14" t="str">
         <f t="shared" si="4"/>
-        <v>{"g":20,"i":[{"t":"i","i":21007,"c":7,"tr":0}]}</v>
+        <v>{"g":20,"i":[{"t":"i","i":21007,"c":1,"tr":0}]}</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.15">
@@ -20496,7 +20494,7 @@
         <v>886</v>
       </c>
       <c r="F15">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G15" t="str">
         <f t="shared" si="1"/>
@@ -20508,7 +20506,7 @@
       </c>
       <c r="I15" t="str">
         <f t="shared" si="2"/>
-        <v>,"c":8,"tr":0}</v>
+        <v>,"c":1,"tr":0}</v>
       </c>
       <c r="J15" t="str">
         <f t="shared" si="3"/>
@@ -20516,7 +20514,7 @@
       </c>
       <c r="K15" t="str">
         <f t="shared" si="4"/>
-        <v>{"g":20,"i":[{"t":"i","i":21008,"c":8,"tr":0}]}</v>
+        <v>{"g":20,"i":[{"t":"i","i":21008,"c":1,"tr":0}]}</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.15">
@@ -20537,7 +20535,7 @@
         <v>887</v>
       </c>
       <c r="F16">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G16" t="str">
         <f t="shared" si="1"/>
@@ -20549,7 +20547,7 @@
       </c>
       <c r="I16" t="str">
         <f t="shared" si="2"/>
-        <v>,"c":9,"tr":0}</v>
+        <v>,"c":1,"tr":0}</v>
       </c>
       <c r="J16" t="str">
         <f t="shared" si="3"/>
@@ -20557,7 +20555,7 @@
       </c>
       <c r="K16" t="str">
         <f t="shared" si="4"/>
-        <v>{"g":20,"i":[{"t":"i","i":21009,"c":9,"tr":0}]}</v>
+        <v>{"g":20,"i":[{"t":"i","i":21009,"c":1,"tr":0}]}</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.15">
@@ -20578,7 +20576,7 @@
         <v>888</v>
       </c>
       <c r="F17">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G17" t="str">
         <f t="shared" si="1"/>
@@ -20590,7 +20588,7 @@
       </c>
       <c r="I17" t="str">
         <f t="shared" si="2"/>
-        <v>,"c":10,"tr":0}</v>
+        <v>,"c":1,"tr":0}</v>
       </c>
       <c r="J17" t="str">
         <f t="shared" si="3"/>
@@ -20598,7 +20596,7 @@
       </c>
       <c r="K17" t="str">
         <f t="shared" si="4"/>
-        <v>{"g":20,"i":[{"t":"i","i":21010,"c":10,"tr":0}]}</v>
+        <v>{"g":20,"i":[{"t":"i","i":21010,"c":1,"tr":0}]}</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.15">
@@ -20619,7 +20617,7 @@
         <v>903</v>
       </c>
       <c r="F18">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G18" t="str">
         <f t="shared" si="1"/>
@@ -20631,7 +20629,7 @@
       </c>
       <c r="I18" t="str">
         <f t="shared" si="2"/>
-        <v>,"c":11,"tr":0}</v>
+        <v>,"c":1,"tr":0}</v>
       </c>
       <c r="J18" t="str">
         <f t="shared" si="3"/>
@@ -20639,7 +20637,7 @@
       </c>
       <c r="K18" t="str">
         <f t="shared" si="4"/>
-        <v>{"g":100,"i":[{"t":"i","i":22001,"c":11,"tr":0}]}</v>
+        <v>{"g":100,"i":[{"t":"i","i":22001,"c":1,"tr":0}]}</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.15">
@@ -20660,7 +20658,7 @@
         <v>906</v>
       </c>
       <c r="F19">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G19" t="str">
         <f t="shared" si="1"/>
@@ -20672,7 +20670,7 @@
       </c>
       <c r="I19" t="str">
         <f t="shared" si="2"/>
-        <v>,"c":12,"tr":0}</v>
+        <v>,"c":1,"tr":0}</v>
       </c>
       <c r="J19" t="str">
         <f t="shared" si="3"/>
@@ -20680,7 +20678,7 @@
       </c>
       <c r="K19" t="str">
         <f t="shared" si="4"/>
-        <v>{"g":100,"i":[{"t":"i","i":22004,"c":12,"tr":0}]}</v>
+        <v>{"g":100,"i":[{"t":"i","i":22004,"c":1,"tr":0}]}</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.15">
@@ -20701,7 +20699,7 @@
         <v>909</v>
       </c>
       <c r="F20">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="G20" t="str">
         <f t="shared" si="1"/>
@@ -20713,7 +20711,7 @@
       </c>
       <c r="I20" t="str">
         <f t="shared" si="2"/>
-        <v>,"c":13,"tr":0}</v>
+        <v>,"c":1,"tr":0}</v>
       </c>
       <c r="J20" t="str">
         <f t="shared" si="3"/>
@@ -20721,7 +20719,7 @@
       </c>
       <c r="K20" t="str">
         <f t="shared" si="4"/>
-        <v>{"g":100,"i":[{"t":"i","i":22007,"c":13,"tr":0}]}</v>
+        <v>{"g":100,"i":[{"t":"i","i":22007,"c":1,"tr":0}]}</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.15">
@@ -20742,7 +20740,7 @@
         <v>912</v>
       </c>
       <c r="F21">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="G21" t="str">
         <f t="shared" si="1"/>
@@ -20754,7 +20752,7 @@
       </c>
       <c r="I21" t="str">
         <f t="shared" si="2"/>
-        <v>,"c":14,"tr":0}</v>
+        <v>,"c":1,"tr":0}</v>
       </c>
       <c r="J21" t="str">
         <f t="shared" si="3"/>
@@ -20762,7 +20760,7 @@
       </c>
       <c r="K21" t="str">
         <f t="shared" si="4"/>
-        <v>{"g":100,"i":[{"t":"i","i":22010,"c":14,"tr":0}]}</v>
+        <v>{"g":100,"i":[{"t":"i","i":22010,"c":1,"tr":0}]}</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.15">
@@ -20783,7 +20781,7 @@
         <v>915</v>
       </c>
       <c r="F22">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G22" t="str">
         <f t="shared" si="1"/>
@@ -20795,7 +20793,7 @@
       </c>
       <c r="I22" t="str">
         <f t="shared" si="2"/>
-        <v>,"c":15,"tr":0}</v>
+        <v>,"c":1,"tr":0}</v>
       </c>
       <c r="J22" t="str">
         <f t="shared" si="3"/>
@@ -20803,7 +20801,7 @@
       </c>
       <c r="K22" t="str">
         <f t="shared" si="4"/>
-        <v>{"g":100,"i":[{"t":"i","i":22013,"c":15,"tr":0}]}</v>
+        <v>{"g":100,"i":[{"t":"i","i":22013,"c":1,"tr":0}]}</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.15">
@@ -20824,7 +20822,7 @@
         <v>918</v>
       </c>
       <c r="F23">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G23" t="str">
         <f t="shared" si="1"/>
@@ -20836,7 +20834,7 @@
       </c>
       <c r="I23" t="str">
         <f t="shared" si="2"/>
-        <v>,"c":16,"tr":0}</v>
+        <v>,"c":1,"tr":0}</v>
       </c>
       <c r="J23" t="str">
         <f t="shared" si="3"/>
@@ -20844,7 +20842,7 @@
       </c>
       <c r="K23" t="str">
         <f t="shared" si="4"/>
-        <v>{"g":100,"i":[{"t":"i","i":22016,"c":16,"tr":0}]}</v>
+        <v>{"g":100,"i":[{"t":"i","i":22016,"c":1,"tr":0}]}</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.15">
@@ -20865,7 +20863,7 @@
         <v>921</v>
       </c>
       <c r="F24">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="G24" t="str">
         <f t="shared" si="1"/>
@@ -20877,7 +20875,7 @@
       </c>
       <c r="I24" t="str">
         <f t="shared" si="2"/>
-        <v>,"c":17,"tr":0}</v>
+        <v>,"c":1,"tr":0}</v>
       </c>
       <c r="J24" t="str">
         <f t="shared" si="3"/>
@@ -20885,7 +20883,7 @@
       </c>
       <c r="K24" t="str">
         <f t="shared" si="4"/>
-        <v>{"g":100,"i":[{"t":"i","i":22019,"c":17,"tr":0}]}</v>
+        <v>{"g":100,"i":[{"t":"i","i":22019,"c":1,"tr":0}]}</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.15">
@@ -20906,7 +20904,7 @@
         <v>924</v>
       </c>
       <c r="F25">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="G25" t="str">
         <f t="shared" si="1"/>
@@ -20918,7 +20916,7 @@
       </c>
       <c r="I25" t="str">
         <f t="shared" si="2"/>
-        <v>,"c":18,"tr":0}</v>
+        <v>,"c":1,"tr":0}</v>
       </c>
       <c r="J25" t="str">
         <f t="shared" si="3"/>
@@ -20926,7 +20924,7 @@
       </c>
       <c r="K25" t="str">
         <f t="shared" si="4"/>
-        <v>{"g":100,"i":[{"t":"i","i":22022,"c":18,"tr":0}]}</v>
+        <v>{"g":100,"i":[{"t":"i","i":22022,"c":1,"tr":0}]}</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.15">
@@ -20947,7 +20945,7 @@
         <v>927</v>
       </c>
       <c r="F26">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="G26" t="str">
         <f t="shared" si="1"/>
@@ -20959,7 +20957,7 @@
       </c>
       <c r="I26" t="str">
         <f t="shared" si="2"/>
-        <v>,"c":19,"tr":0}</v>
+        <v>,"c":1,"tr":0}</v>
       </c>
       <c r="J26" t="str">
         <f t="shared" si="3"/>
@@ -20967,7 +20965,7 @@
       </c>
       <c r="K26" t="str">
         <f t="shared" si="4"/>
-        <v>{"g":100,"i":[{"t":"i","i":22025,"c":19,"tr":0}]}</v>
+        <v>{"g":100,"i":[{"t":"i","i":22025,"c":1,"tr":0}]}</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.15">
@@ -20988,7 +20986,7 @@
         <v>889</v>
       </c>
       <c r="F27">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="G27" t="str">
         <f t="shared" si="1"/>
@@ -21000,7 +20998,7 @@
       </c>
       <c r="I27" t="str">
         <f t="shared" si="2"/>
-        <v>,"c":20,"tr":0}</v>
+        <v>,"c":1,"tr":0}</v>
       </c>
       <c r="J27" t="str">
         <f t="shared" si="3"/>
@@ -21008,7 +21006,7 @@
       </c>
       <c r="K27" t="str">
         <f t="shared" si="4"/>
-        <v>{"g":5,"i":[{"t":"i","i":21011,"c":20,"tr":0}]}</v>
+        <v>{"g":5,"i":[{"t":"i","i":21011,"c":1,"tr":0}]}</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.15">
@@ -21029,7 +21027,7 @@
         <v>890</v>
       </c>
       <c r="F28">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="G28" t="str">
         <f t="shared" si="1"/>
@@ -21041,7 +21039,7 @@
       </c>
       <c r="I28" t="str">
         <f t="shared" si="2"/>
-        <v>,"c":21,"tr":0}</v>
+        <v>,"c":1,"tr":0}</v>
       </c>
       <c r="J28" t="str">
         <f t="shared" si="3"/>
@@ -21049,7 +21047,7 @@
       </c>
       <c r="K28" t="str">
         <f t="shared" si="4"/>
-        <v>{"g":5,"i":[{"t":"i","i":21012,"c":21,"tr":0}]}</v>
+        <v>{"g":5,"i":[{"t":"i","i":21012,"c":1,"tr":0}]}</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.15">
@@ -21070,7 +21068,7 @@
         <v>891</v>
       </c>
       <c r="F29">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="G29" t="str">
         <f t="shared" si="1"/>
@@ -21082,7 +21080,7 @@
       </c>
       <c r="I29" t="str">
         <f t="shared" si="2"/>
-        <v>,"c":22,"tr":0}</v>
+        <v>,"c":1,"tr":0}</v>
       </c>
       <c r="J29" t="str">
         <f t="shared" si="3"/>
@@ -21090,7 +21088,7 @@
       </c>
       <c r="K29" t="str">
         <f t="shared" si="4"/>
-        <v>{"g":5,"i":[{"t":"i","i":21013,"c":22,"tr":0}]}</v>
+        <v>{"g":5,"i":[{"t":"i","i":21013,"c":1,"tr":0}]}</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.15">
@@ -21111,7 +21109,7 @@
         <v>892</v>
       </c>
       <c r="F30">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="G30" t="str">
         <f t="shared" si="1"/>
@@ -21123,7 +21121,7 @@
       </c>
       <c r="I30" t="str">
         <f t="shared" si="2"/>
-        <v>,"c":23,"tr":0}</v>
+        <v>,"c":1,"tr":0}</v>
       </c>
       <c r="J30" t="str">
         <f t="shared" si="3"/>
@@ -21131,7 +21129,7 @@
       </c>
       <c r="K30" t="str">
         <f t="shared" si="4"/>
-        <v>{"g":5,"i":[{"t":"i","i":21014,"c":23,"tr":0}]}</v>
+        <v>{"g":5,"i":[{"t":"i","i":21014,"c":1,"tr":0}]}</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.15">
@@ -21152,7 +21150,7 @@
         <v>893</v>
       </c>
       <c r="F31">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="G31" t="str">
         <f t="shared" si="1"/>
@@ -21164,7 +21162,7 @@
       </c>
       <c r="I31" t="str">
         <f t="shared" si="2"/>
-        <v>,"c":24,"tr":0}</v>
+        <v>,"c":1,"tr":0}</v>
       </c>
       <c r="J31" t="str">
         <f t="shared" si="3"/>
@@ -21172,7 +21170,7 @@
       </c>
       <c r="K31" t="str">
         <f t="shared" si="4"/>
-        <v>{"g":5,"i":[{"t":"i","i":21015,"c":24,"tr":0}]}</v>
+        <v>{"g":5,"i":[{"t":"i","i":21015,"c":1,"tr":0}]}</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.15">
@@ -21193,7 +21191,7 @@
         <v>894</v>
       </c>
       <c r="F32">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="G32" t="str">
         <f t="shared" si="1"/>
@@ -21205,7 +21203,7 @@
       </c>
       <c r="I32" t="str">
         <f t="shared" si="2"/>
-        <v>,"c":25,"tr":0}</v>
+        <v>,"c":1,"tr":0}</v>
       </c>
       <c r="J32" t="str">
         <f t="shared" si="3"/>
@@ -21213,7 +21211,7 @@
       </c>
       <c r="K32" t="str">
         <f t="shared" si="4"/>
-        <v>{"g":5,"i":[{"t":"i","i":21016,"c":25,"tr":0}]}</v>
+        <v>{"g":5,"i":[{"t":"i","i":21016,"c":1,"tr":0}]}</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.15">
@@ -21234,7 +21232,7 @@
         <v>895</v>
       </c>
       <c r="F33">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="G33" t="str">
         <f t="shared" si="1"/>
@@ -21246,7 +21244,7 @@
       </c>
       <c r="I33" t="str">
         <f t="shared" si="2"/>
-        <v>,"c":26,"tr":0}</v>
+        <v>,"c":1,"tr":0}</v>
       </c>
       <c r="J33" t="str">
         <f t="shared" si="3"/>
@@ -21254,7 +21252,7 @@
       </c>
       <c r="K33" t="str">
         <f t="shared" si="4"/>
-        <v>{"g":5,"i":[{"t":"i","i":21017,"c":26,"tr":0}]}</v>
+        <v>{"g":5,"i":[{"t":"i","i":21017,"c":1,"tr":0}]}</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.15">
@@ -21275,7 +21273,7 @@
         <v>904</v>
       </c>
       <c r="F34">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="G34" t="str">
         <f t="shared" si="1"/>
@@ -21287,7 +21285,7 @@
       </c>
       <c r="I34" t="str">
         <f t="shared" si="2"/>
-        <v>,"c":27,"tr":0}</v>
+        <v>,"c":1,"tr":0}</v>
       </c>
       <c r="J34" t="str">
         <f t="shared" si="3"/>
@@ -21295,7 +21293,7 @@
       </c>
       <c r="K34" t="str">
         <f t="shared" si="4"/>
-        <v>{"g":10,"i":[{"t":"i","i":22002,"c":27,"tr":0}]}</v>
+        <v>{"g":10,"i":[{"t":"i","i":22002,"c":1,"tr":0}]}</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.15">
@@ -21316,7 +21314,7 @@
         <v>907</v>
       </c>
       <c r="F35">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="G35" t="str">
         <f t="shared" si="1"/>
@@ -21328,7 +21326,7 @@
       </c>
       <c r="I35" t="str">
         <f t="shared" si="2"/>
-        <v>,"c":28,"tr":0}</v>
+        <v>,"c":1,"tr":0}</v>
       </c>
       <c r="J35" t="str">
         <f t="shared" si="3"/>
@@ -21336,7 +21334,7 @@
       </c>
       <c r="K35" t="str">
         <f t="shared" si="4"/>
-        <v>{"g":10,"i":[{"t":"i","i":22005,"c":28,"tr":0}]}</v>
+        <v>{"g":10,"i":[{"t":"i","i":22005,"c":1,"tr":0}]}</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.15">
@@ -21357,7 +21355,7 @@
         <v>910</v>
       </c>
       <c r="F36">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="G36" t="str">
         <f t="shared" si="1"/>
@@ -21369,7 +21367,7 @@
       </c>
       <c r="I36" t="str">
         <f t="shared" si="2"/>
-        <v>,"c":29,"tr":0}</v>
+        <v>,"c":1,"tr":0}</v>
       </c>
       <c r="J36" t="str">
         <f t="shared" si="3"/>
@@ -21377,7 +21375,7 @@
       </c>
       <c r="K36" t="str">
         <f t="shared" si="4"/>
-        <v>{"g":10,"i":[{"t":"i","i":22008,"c":29,"tr":0}]}</v>
+        <v>{"g":10,"i":[{"t":"i","i":22008,"c":1,"tr":0}]}</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.15">
@@ -21398,7 +21396,7 @@
         <v>913</v>
       </c>
       <c r="F37">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="G37" t="str">
         <f t="shared" si="1"/>
@@ -21410,7 +21408,7 @@
       </c>
       <c r="I37" t="str">
         <f t="shared" si="2"/>
-        <v>,"c":30,"tr":0}</v>
+        <v>,"c":1,"tr":0}</v>
       </c>
       <c r="J37" t="str">
         <f t="shared" si="3"/>
@@ -21418,7 +21416,7 @@
       </c>
       <c r="K37" t="str">
         <f t="shared" si="4"/>
-        <v>{"g":10,"i":[{"t":"i","i":22011,"c":30,"tr":0}]}</v>
+        <v>{"g":10,"i":[{"t":"i","i":22011,"c":1,"tr":0}]}</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.15">
@@ -21439,7 +21437,7 @@
         <v>916</v>
       </c>
       <c r="F38">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="G38" t="str">
         <f t="shared" si="1"/>
@@ -21451,7 +21449,7 @@
       </c>
       <c r="I38" t="str">
         <f t="shared" si="2"/>
-        <v>,"c":31,"tr":0}</v>
+        <v>,"c":1,"tr":0}</v>
       </c>
       <c r="J38" t="str">
         <f t="shared" si="3"/>
@@ -21459,7 +21457,7 @@
       </c>
       <c r="K38" t="str">
         <f t="shared" si="4"/>
-        <v>{"g":10,"i":[{"t":"i","i":22014,"c":31,"tr":0}]}</v>
+        <v>{"g":10,"i":[{"t":"i","i":22014,"c":1,"tr":0}]}</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.15">
@@ -21480,7 +21478,7 @@
         <v>919</v>
       </c>
       <c r="F39">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="G39" t="str">
         <f t="shared" si="1"/>
@@ -21492,7 +21490,7 @@
       </c>
       <c r="I39" t="str">
         <f t="shared" si="2"/>
-        <v>,"c":32,"tr":0}</v>
+        <v>,"c":1,"tr":0}</v>
       </c>
       <c r="J39" t="str">
         <f t="shared" si="3"/>
@@ -21500,7 +21498,7 @@
       </c>
       <c r="K39" t="str">
         <f t="shared" si="4"/>
-        <v>{"g":10,"i":[{"t":"i","i":22017,"c":32,"tr":0}]}</v>
+        <v>{"g":10,"i":[{"t":"i","i":22017,"c":1,"tr":0}]}</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.15">
@@ -21521,7 +21519,7 @@
         <v>922</v>
       </c>
       <c r="F40">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="G40" t="str">
         <f t="shared" si="1"/>
@@ -21533,7 +21531,7 @@
       </c>
       <c r="I40" t="str">
         <f t="shared" si="2"/>
-        <v>,"c":33,"tr":0}</v>
+        <v>,"c":1,"tr":0}</v>
       </c>
       <c r="J40" t="str">
         <f t="shared" si="3"/>
@@ -21541,7 +21539,7 @@
       </c>
       <c r="K40" t="str">
         <f t="shared" si="4"/>
-        <v>{"g":10,"i":[{"t":"i","i":22020,"c":33,"tr":0}]}</v>
+        <v>{"g":10,"i":[{"t":"i","i":22020,"c":1,"tr":0}]}</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.15">
@@ -21562,7 +21560,7 @@
         <v>925</v>
       </c>
       <c r="F41">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="G41" t="str">
         <f t="shared" si="1"/>
@@ -21574,7 +21572,7 @@
       </c>
       <c r="I41" t="str">
         <f t="shared" si="2"/>
-        <v>,"c":34,"tr":0}</v>
+        <v>,"c":1,"tr":0}</v>
       </c>
       <c r="J41" t="str">
         <f t="shared" si="3"/>
@@ -21582,7 +21580,7 @@
       </c>
       <c r="K41" t="str">
         <f t="shared" si="4"/>
-        <v>{"g":10,"i":[{"t":"i","i":22023,"c":34,"tr":0}]}</v>
+        <v>{"g":10,"i":[{"t":"i","i":22023,"c":1,"tr":0}]}</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.15">
@@ -21603,7 +21601,7 @@
         <v>928</v>
       </c>
       <c r="F42">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="G42" t="str">
         <f t="shared" si="1"/>
@@ -21615,7 +21613,7 @@
       </c>
       <c r="I42" t="str">
         <f t="shared" si="2"/>
-        <v>,"c":35,"tr":0}</v>
+        <v>,"c":1,"tr":0}</v>
       </c>
       <c r="J42" t="str">
         <f t="shared" si="3"/>
@@ -21623,7 +21621,7 @@
       </c>
       <c r="K42" t="str">
         <f t="shared" si="4"/>
-        <v>{"g":10,"i":[{"t":"i","i":22026,"c":35,"tr":0}]}</v>
+        <v>{"g":10,"i":[{"t":"i","i":22026,"c":1,"tr":0}]}</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.15">
@@ -21644,7 +21642,7 @@
         <v>896</v>
       </c>
       <c r="F43">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="G43" t="str">
         <f t="shared" si="1"/>
@@ -21656,7 +21654,7 @@
       </c>
       <c r="I43" t="str">
         <f t="shared" si="2"/>
-        <v>,"c":36,"tr":0}</v>
+        <v>,"c":1,"tr":0}</v>
       </c>
       <c r="J43" t="str">
         <f t="shared" si="3"/>
@@ -21664,12 +21662,12 @@
       </c>
       <c r="K43" t="str">
         <f t="shared" si="4"/>
-        <v>{"g":100,"i":[{"t":"i","i":21018,"c":36,"tr":0}]}</v>
+        <v>{"g":100,"i":[{"t":"i","i":21018,"c":1,"tr":0}]}</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A44">
-        <f t="shared" ref="A44:A65" si="6">B44*1000+C44</f>
+        <f t="shared" ref="A44:A58" si="6">B44*1000+C44</f>
         <v>200002</v>
       </c>
       <c r="B44">
@@ -21685,7 +21683,7 @@
         <v>897</v>
       </c>
       <c r="F44">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="G44" t="str">
         <f t="shared" si="1"/>
@@ -21697,7 +21695,7 @@
       </c>
       <c r="I44" t="str">
         <f t="shared" si="2"/>
-        <v>,"c":37,"tr":0}</v>
+        <v>,"c":1,"tr":0}</v>
       </c>
       <c r="J44" t="str">
         <f t="shared" si="3"/>
@@ -21705,7 +21703,7 @@
       </c>
       <c r="K44" t="str">
         <f t="shared" si="4"/>
-        <v>{"g":100,"i":[{"t":"i","i":21019,"c":37,"tr":0}]}</v>
+        <v>{"g":100,"i":[{"t":"i","i":21019,"c":1,"tr":0}]}</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.15">
@@ -21726,7 +21724,7 @@
         <v>898</v>
       </c>
       <c r="F45">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="G45" t="str">
         <f t="shared" si="1"/>
@@ -21738,7 +21736,7 @@
       </c>
       <c r="I45" t="str">
         <f t="shared" si="2"/>
-        <v>,"c":38,"tr":0}</v>
+        <v>,"c":1,"tr":0}</v>
       </c>
       <c r="J45" t="str">
         <f t="shared" si="3"/>
@@ -21746,7 +21744,7 @@
       </c>
       <c r="K45" t="str">
         <f t="shared" si="4"/>
-        <v>{"g":100,"i":[{"t":"i","i":21020,"c":38,"tr":0}]}</v>
+        <v>{"g":100,"i":[{"t":"i","i":21020,"c":1,"tr":0}]}</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.15">
@@ -21767,7 +21765,7 @@
         <v>899</v>
       </c>
       <c r="F46">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="G46" t="str">
         <f t="shared" si="1"/>
@@ -21779,7 +21777,7 @@
       </c>
       <c r="I46" t="str">
         <f t="shared" si="2"/>
-        <v>,"c":39,"tr":0}</v>
+        <v>,"c":1,"tr":0}</v>
       </c>
       <c r="J46" t="str">
         <f t="shared" si="3"/>
@@ -21787,7 +21785,7 @@
       </c>
       <c r="K46" t="str">
         <f t="shared" si="4"/>
-        <v>{"g":100,"i":[{"t":"i","i":21021,"c":39,"tr":0}]}</v>
+        <v>{"g":100,"i":[{"t":"i","i":21021,"c":1,"tr":0}]}</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.15">
@@ -21808,7 +21806,7 @@
         <v>900</v>
       </c>
       <c r="F47">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="G47" t="str">
         <f t="shared" si="1"/>
@@ -21820,7 +21818,7 @@
       </c>
       <c r="I47" t="str">
         <f t="shared" si="2"/>
-        <v>,"c":40,"tr":0}</v>
+        <v>,"c":1,"tr":0}</v>
       </c>
       <c r="J47" t="str">
         <f t="shared" si="3"/>
@@ -21828,7 +21826,7 @@
       </c>
       <c r="K47" t="str">
         <f t="shared" si="4"/>
-        <v>{"g":100,"i":[{"t":"i","i":21022,"c":40,"tr":0}]}</v>
+        <v>{"g":100,"i":[{"t":"i","i":21022,"c":1,"tr":0}]}</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.15">
@@ -21849,7 +21847,7 @@
         <v>901</v>
       </c>
       <c r="F48">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="G48" t="str">
         <f t="shared" si="1"/>
@@ -21861,7 +21859,7 @@
       </c>
       <c r="I48" t="str">
         <f t="shared" si="2"/>
-        <v>,"c":41,"tr":0}</v>
+        <v>,"c":1,"tr":0}</v>
       </c>
       <c r="J48" t="str">
         <f t="shared" si="3"/>
@@ -21869,7 +21867,7 @@
       </c>
       <c r="K48" t="str">
         <f t="shared" si="4"/>
-        <v>{"g":100,"i":[{"t":"i","i":21023,"c":41,"tr":0}]}</v>
+        <v>{"g":100,"i":[{"t":"i","i":21023,"c":1,"tr":0}]}</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.15">
@@ -21890,7 +21888,7 @@
         <v>902</v>
       </c>
       <c r="F49">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="G49" t="str">
         <f t="shared" si="1"/>
@@ -21902,7 +21900,7 @@
       </c>
       <c r="I49" t="str">
         <f t="shared" si="2"/>
-        <v>,"c":42,"tr":0}</v>
+        <v>,"c":1,"tr":0}</v>
       </c>
       <c r="J49" t="str">
         <f t="shared" si="3"/>
@@ -21910,7 +21908,7 @@
       </c>
       <c r="K49" t="str">
         <f t="shared" si="4"/>
-        <v>{"g":100,"i":[{"t":"i","i":21024,"c":42,"tr":0}]}</v>
+        <v>{"g":100,"i":[{"t":"i","i":21024,"c":1,"tr":0}]}</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.15">
@@ -21931,7 +21929,7 @@
         <v>905</v>
       </c>
       <c r="F50">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="G50" t="str">
         <f t="shared" si="1"/>
@@ -21943,7 +21941,7 @@
       </c>
       <c r="I50" t="str">
         <f t="shared" si="2"/>
-        <v>,"c":43,"tr":0}</v>
+        <v>,"c":1,"tr":0}</v>
       </c>
       <c r="J50" t="str">
         <f t="shared" si="3"/>
@@ -21951,7 +21949,7 @@
       </c>
       <c r="K50" t="str">
         <f t="shared" si="4"/>
-        <v>{"g":100,"i":[{"t":"i","i":22003,"c":43,"tr":0}]}</v>
+        <v>{"g":100,"i":[{"t":"i","i":22003,"c":1,"tr":0}]}</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.15">
@@ -21972,7 +21970,7 @@
         <v>908</v>
       </c>
       <c r="F51">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="G51" t="str">
         <f t="shared" si="1"/>
@@ -21984,7 +21982,7 @@
       </c>
       <c r="I51" t="str">
         <f t="shared" si="2"/>
-        <v>,"c":44,"tr":0}</v>
+        <v>,"c":1,"tr":0}</v>
       </c>
       <c r="J51" t="str">
         <f t="shared" si="3"/>
@@ -21992,7 +21990,7 @@
       </c>
       <c r="K51" t="str">
         <f t="shared" si="4"/>
-        <v>{"g":100,"i":[{"t":"i","i":22006,"c":44,"tr":0}]}</v>
+        <v>{"g":100,"i":[{"t":"i","i":22006,"c":1,"tr":0}]}</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.15">
@@ -22013,7 +22011,7 @@
         <v>911</v>
       </c>
       <c r="F52">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="G52" t="str">
         <f t="shared" si="1"/>
@@ -22025,7 +22023,7 @@
       </c>
       <c r="I52" t="str">
         <f t="shared" si="2"/>
-        <v>,"c":45,"tr":0}</v>
+        <v>,"c":1,"tr":0}</v>
       </c>
       <c r="J52" t="str">
         <f t="shared" si="3"/>
@@ -22033,7 +22031,7 @@
       </c>
       <c r="K52" t="str">
         <f t="shared" si="4"/>
-        <v>{"g":100,"i":[{"t":"i","i":22009,"c":45,"tr":0}]}</v>
+        <v>{"g":100,"i":[{"t":"i","i":22009,"c":1,"tr":0}]}</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.15">
@@ -22054,7 +22052,7 @@
         <v>914</v>
       </c>
       <c r="F53">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="G53" t="str">
         <f t="shared" si="1"/>
@@ -22066,7 +22064,7 @@
       </c>
       <c r="I53" t="str">
         <f t="shared" si="2"/>
-        <v>,"c":46,"tr":0}</v>
+        <v>,"c":1,"tr":0}</v>
       </c>
       <c r="J53" t="str">
         <f t="shared" si="3"/>
@@ -22074,7 +22072,7 @@
       </c>
       <c r="K53" t="str">
         <f t="shared" si="4"/>
-        <v>{"g":100,"i":[{"t":"i","i":22012,"c":46,"tr":0}]}</v>
+        <v>{"g":100,"i":[{"t":"i","i":22012,"c":1,"tr":0}]}</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.15">
@@ -22095,7 +22093,7 @@
         <v>917</v>
       </c>
       <c r="F54">
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="G54" t="str">
         <f t="shared" si="1"/>
@@ -22107,7 +22105,7 @@
       </c>
       <c r="I54" t="str">
         <f t="shared" si="2"/>
-        <v>,"c":47,"tr":0}</v>
+        <v>,"c":1,"tr":0}</v>
       </c>
       <c r="J54" t="str">
         <f t="shared" si="3"/>
@@ -22115,7 +22113,7 @@
       </c>
       <c r="K54" t="str">
         <f t="shared" si="4"/>
-        <v>{"g":100,"i":[{"t":"i","i":22015,"c":47,"tr":0}]}</v>
+        <v>{"g":100,"i":[{"t":"i","i":22015,"c":1,"tr":0}]}</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.15">
@@ -22136,7 +22134,7 @@
         <v>920</v>
       </c>
       <c r="F55">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="G55" t="str">
         <f t="shared" si="1"/>
@@ -22148,7 +22146,7 @@
       </c>
       <c r="I55" t="str">
         <f t="shared" si="2"/>
-        <v>,"c":48,"tr":0}</v>
+        <v>,"c":1,"tr":0}</v>
       </c>
       <c r="J55" t="str">
         <f t="shared" si="3"/>
@@ -22156,7 +22154,7 @@
       </c>
       <c r="K55" t="str">
         <f t="shared" si="4"/>
-        <v>{"g":100,"i":[{"t":"i","i":22018,"c":48,"tr":0}]}</v>
+        <v>{"g":100,"i":[{"t":"i","i":22018,"c":1,"tr":0}]}</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.15">
@@ -22177,7 +22175,7 @@
         <v>923</v>
       </c>
       <c r="F56">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="G56" t="str">
         <f t="shared" si="1"/>
@@ -22189,7 +22187,7 @@
       </c>
       <c r="I56" t="str">
         <f t="shared" si="2"/>
-        <v>,"c":49,"tr":0}</v>
+        <v>,"c":1,"tr":0}</v>
       </c>
       <c r="J56" t="str">
         <f t="shared" si="3"/>
@@ -22197,7 +22195,7 @@
       </c>
       <c r="K56" t="str">
         <f t="shared" si="4"/>
-        <v>{"g":100,"i":[{"t":"i","i":22021,"c":49,"tr":0}]}</v>
+        <v>{"g":100,"i":[{"t":"i","i":22021,"c":1,"tr":0}]}</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.15">
@@ -22218,7 +22216,7 @@
         <v>926</v>
       </c>
       <c r="F57">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="G57" t="str">
         <f t="shared" si="1"/>
@@ -22230,7 +22228,7 @@
       </c>
       <c r="I57" t="str">
         <f t="shared" si="2"/>
-        <v>,"c":50,"tr":0}</v>
+        <v>,"c":1,"tr":0}</v>
       </c>
       <c r="J57" t="str">
         <f t="shared" si="3"/>
@@ -22238,7 +22236,7 @@
       </c>
       <c r="K57" t="str">
         <f t="shared" si="4"/>
-        <v>{"g":100,"i":[{"t":"i","i":22024,"c":50,"tr":0}]}</v>
+        <v>{"g":100,"i":[{"t":"i","i":22024,"c":1,"tr":0}]}</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.15">
@@ -22259,7 +22257,7 @@
         <v>929</v>
       </c>
       <c r="F58">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="G58" t="str">
         <f t="shared" si="1"/>
@@ -22271,7 +22269,7 @@
       </c>
       <c r="I58" t="str">
         <f t="shared" si="2"/>
-        <v>,"c":51,"tr":0}</v>
+        <v>,"c":1,"tr":0}</v>
       </c>
       <c r="J58" t="str">
         <f t="shared" si="3"/>
@@ -22279,7 +22277,7 @@
       </c>
       <c r="K58" t="str">
         <f t="shared" si="4"/>
-        <v>{"g":100,"i":[{"t":"i","i":22027,"c":51,"tr":0}]}</v>
+        <v>{"g":100,"i":[{"t":"i","i":22027,"c":1,"tr":0}]}</v>
       </c>
     </row>
   </sheetData>
